--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_2_22.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_2_22.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1137856.007300241</v>
+        <v>1164873.799231882</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6605221.096453902</v>
+        <v>5562152.400446148</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5050599.152668067</v>
+        <v>4028287.523710872</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7406439.815140774</v>
+        <v>7830893.481509815</v>
       </c>
     </row>
     <row r="11">
@@ -656,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>156.1889901363379</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
-        <v>400.41929060787</v>
+        <v>261.966844650142</v>
       </c>
       <c r="E2" t="n">
         <v>410.1968133282722</v>
@@ -707,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -814,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>269.58488331796</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>27.35334490128957</v>
       </c>
       <c r="Y4" t="n">
         <v>222.4883416251229</v>
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>406.0233447798626</v>
@@ -905,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>35.62432649143292</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
         <v>219.9844192126098</v>
@@ -959,7 +961,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>223.5952794857266</v>
       </c>
       <c r="Y5" t="n">
         <v>396.9273063213908</v>
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1099,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>27.77250173713444</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
         <v>237.1532516330649</v>
@@ -1117,7 +1119,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>180.6077930059089</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,25 +1135,25 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
-        <v>400.41929060787</v>
+        <v>133.2797614298002</v>
       </c>
       <c r="E8" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>10.30664115196966</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
         <v>396.636963852737</v>
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1339,13 +1341,13 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>237.9875865830591</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
         <v>271.1468876098733</v>
@@ -1354,10 +1356,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>180.6077930059089</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>303.6415613570278</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1379,13 +1381,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>12.33276238106401</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>346.3391791168841</v>
@@ -1525,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5101087184879</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
         <v>115.1825854367171</v>
@@ -1576,22 +1578,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>27.35334490128957</v>
       </c>
       <c r="Y13" t="n">
         <v>222.4883416251229</v>
@@ -1607,13 +1609,13 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
         <v>416.8201079258493</v>
@@ -1625,7 +1627,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1661,19 +1663,19 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
-        <v>60.84403875340011</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>228.4160012459003</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="15">
@@ -1774,16 +1776,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>28.01490760909629</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1825,10 +1827,10 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>180.6077930059088</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1856,10 +1858,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>355.4445328256823</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V17" t="n">
         <v>346.3391791168841</v>
@@ -1999,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,10 +2016,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.577887163712</v>
+        <v>2.490924548432452</v>
       </c>
       <c r="H19" t="n">
-        <v>45.67270079027159</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,19 +2052,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
         <v>235.9604235189134</v>
@@ -2093,13 +2095,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>181.5733848809636</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H20" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>254.489886823085</v>
+        <v>31.99018014062471</v>
       </c>
       <c r="V20" t="n">
         <v>346.3391791168841</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2245,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>135.1707626729762</v>
       </c>
       <c r="F22" t="n">
         <v>162.9848146305146</v>
@@ -2254,10 +2256,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,19 +2295,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
-        <v>264.9917635400603</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2324,13 +2326,13 @@
         <v>400.41929060787</v>
       </c>
       <c r="E23" t="n">
-        <v>410.1968133282722</v>
+        <v>53.20093248929918</v>
       </c>
       <c r="F23" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>47.64512042712314</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H23" t="n">
         <v>307.7994123985592</v>
@@ -2473,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>137.0591948939936</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
-        <v>148.1113806425979</v>
+        <v>54.68688746169106</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2530,19 +2532,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -2570,7 +2572,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
         <v>85.48824505609757</v>
@@ -2606,10 +2608,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T26" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>119.8051733265733</v>
+        <v>31.99018014062471</v>
       </c>
       <c r="V26" t="n">
         <v>346.3391791168841</v>
@@ -2713,25 +2715,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>92.80744320528898</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>180.6077930059077</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2801,10 +2803,10 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
-        <v>367.6236394854355</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>404.6410012660961</v>
+        <v>355.4445328256823</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -3001,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3013,10 +3015,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>27.35334490128935</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>12.68843489334748</v>
       </c>
     </row>
     <row r="32">
@@ -3190,10 +3192,10 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>153.0251390105131</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3205,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3241,19 +3243,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>12.9179989440782</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -3275,7 +3277,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
-        <v>367.6236394854355</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
         <v>404.6410012660961</v>
@@ -3284,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>219.9844192126098</v>
+        <v>219.2279701699385</v>
       </c>
       <c r="U35" t="n">
         <v>254.489886823085</v>
@@ -3424,22 +3426,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30284167615523</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>84.41999114135434</v>
+        <v>29.06736062834963</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
         <v>271.1468876098733</v>
@@ -3487,7 +3489,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3515,13 +3517,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
-        <v>355.4445328256823</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>254.489886823085</v>
+        <v>165.9184445944652</v>
       </c>
       <c r="V38" t="n">
         <v>346.3391791168841</v>
@@ -3676,10 +3678,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>65.42520756919177</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
-        <v>228.2601210751805</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
         <v>279.9701659793371</v>
@@ -3724,10 +3726,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>406.1189678678446</v>
+        <v>25.16407279425213</v>
       </c>
       <c r="C41" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
-        <v>45.82170770786904</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3797,7 +3799,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
         <v>379.9226978561831</v>
@@ -3901,10 +3903,10 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>58.8776823612798</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>241.4498045374123</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3974,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>260.1095585019559</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
         <v>400.41929060787</v>
@@ -3989,13 +3991,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4031,10 +4033,10 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>189.698312067853</v>
       </c>
       <c r="W44" t="n">
         <v>379.9226978561831</v>
@@ -4138,22 +4140,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>31.36508662277793</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4198,7 +4200,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>27.35334490128935</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
         <v>222.4883416251229</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2514.534933932999</v>
+        <v>2389.812653999902</v>
       </c>
       <c r="C2" t="n">
-        <v>2104.410343246269</v>
+        <v>1979.688063313172</v>
       </c>
       <c r="D2" t="n">
-        <v>1699.94641333933</v>
+        <v>1715.075088919089</v>
       </c>
       <c r="E2" t="n">
-        <v>1285.606197856226</v>
+        <v>1300.734873435986</v>
       </c>
       <c r="F2" t="n">
-        <v>864.5757858099139</v>
+        <v>879.7044613896738</v>
       </c>
       <c r="G2" t="n">
-        <v>455.8475017027461</v>
+        <v>470.976177282506</v>
       </c>
       <c r="H2" t="n">
-        <v>144.9390043304641</v>
+        <v>160.067679910224</v>
       </c>
       <c r="I2" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J2" t="n">
-        <v>312.7727131152915</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K2" t="n">
-        <v>835.6969951832094</v>
+        <v>611.8754183363367</v>
       </c>
       <c r="L2" t="n">
-        <v>835.6969951832094</v>
+        <v>1324.466818148575</v>
       </c>
       <c r="M2" t="n">
-        <v>1560.714110571482</v>
+        <v>1438.66628359469</v>
       </c>
       <c r="N2" t="n">
-        <v>2285.731225959755</v>
+        <v>2191.847300233308</v>
       </c>
       <c r="O2" t="n">
-        <v>2929.36208237686</v>
+        <v>2835.478156650413</v>
       </c>
       <c r="P2" t="n">
-        <v>2929.36208237686</v>
+        <v>3364.634854569565</v>
       </c>
       <c r="Q2" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="R2" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S2" t="n">
-        <v>2929.36208237686</v>
+        <v>3550.514786158958</v>
       </c>
       <c r="T2" t="n">
-        <v>2929.36208237686</v>
+        <v>3550.514786158958</v>
       </c>
       <c r="U2" t="n">
-        <v>2672.30159063637</v>
+        <v>3550.514786158958</v>
       </c>
       <c r="V2" t="n">
-        <v>2672.30159063637</v>
+        <v>3200.677231495439</v>
       </c>
       <c r="W2" t="n">
-        <v>2672.30159063637</v>
+        <v>3200.677231495439</v>
       </c>
       <c r="X2" t="n">
-        <v>2672.30159063637</v>
+        <v>2800.033833664391</v>
       </c>
       <c r="Y2" t="n">
-        <v>2672.30159063637</v>
+        <v>2800.033833664391</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>737.4180835340717</v>
+        <v>752.5467591138315</v>
       </c>
       <c r="C3" t="n">
-        <v>603.4230122830173</v>
+        <v>618.5516878627773</v>
       </c>
       <c r="D3" t="n">
-        <v>486.5258545024097</v>
+        <v>501.6545300821697</v>
       </c>
       <c r="E3" t="n">
-        <v>366.0330384947378</v>
+        <v>381.1617140744977</v>
       </c>
       <c r="F3" t="n">
-        <v>257.0731586772423</v>
+        <v>272.2018342570022</v>
       </c>
       <c r="G3" t="n">
-        <v>150.083045991581</v>
+        <v>165.2117215713409</v>
       </c>
       <c r="H3" t="n">
-        <v>79.33583302729703</v>
+        <v>94.46450860705697</v>
       </c>
       <c r="I3" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J3" t="n">
-        <v>58.5872416475372</v>
+        <v>266.5287747899304</v>
       </c>
       <c r="K3" t="n">
-        <v>58.5872416475372</v>
+        <v>266.5287747899304</v>
       </c>
       <c r="L3" t="n">
-        <v>719.6754135668255</v>
+        <v>266.5287747899304</v>
       </c>
       <c r="M3" t="n">
-        <v>1444.692528955098</v>
+        <v>1109.505855484497</v>
       </c>
       <c r="N3" t="n">
-        <v>1513.811025646877</v>
+        <v>1109.505855484497</v>
       </c>
       <c r="O3" t="n">
-        <v>1513.811025646877</v>
+        <v>1813.462946030391</v>
       </c>
       <c r="P3" t="n">
-        <v>2075.516918135407</v>
+        <v>2090.645593715167</v>
       </c>
       <c r="Q3" t="n">
-        <v>2075.516918135407</v>
+        <v>2090.645593715167</v>
       </c>
       <c r="R3" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="S3" t="n">
-        <v>1997.086427612346</v>
+        <v>2012.215103192106</v>
       </c>
       <c r="T3" t="n">
-        <v>1837.744563799354</v>
+        <v>1852.873239379114</v>
       </c>
       <c r="U3" t="n">
-        <v>1640.393752937573</v>
+        <v>1655.522428517333</v>
       </c>
       <c r="V3" t="n">
-        <v>1426.682225930607</v>
+        <v>1441.810901510367</v>
       </c>
       <c r="W3" t="n">
-        <v>1213.449057666935</v>
+        <v>1228.577733246696</v>
       </c>
       <c r="X3" t="n">
-        <v>1037.123075805828</v>
+        <v>1052.251751385588</v>
       </c>
       <c r="Y3" t="n">
-        <v>877.7211161696583</v>
+        <v>892.8497917494182</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>58.5872416475372</v>
+        <v>1163.049767528434</v>
       </c>
       <c r="C4" t="n">
-        <v>58.5872416475372</v>
+        <v>991.9563950901502</v>
       </c>
       <c r="D4" t="n">
-        <v>58.5872416475372</v>
+        <v>832.4617504130601</v>
       </c>
       <c r="E4" t="n">
-        <v>58.5872416475372</v>
+        <v>671.5509352813797</v>
       </c>
       <c r="F4" t="n">
-        <v>58.5872416475372</v>
+        <v>506.9198093919709</v>
       </c>
       <c r="G4" t="n">
-        <v>58.5872416475372</v>
+        <v>339.6694183175143</v>
       </c>
       <c r="H4" t="n">
-        <v>58.5872416475372</v>
+        <v>190.061963122971</v>
       </c>
       <c r="I4" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J4" t="n">
-        <v>72.66979105274773</v>
+        <v>87.79846663250765</v>
       </c>
       <c r="K4" t="n">
-        <v>227.2221187749857</v>
+        <v>242.3507943547456</v>
       </c>
       <c r="L4" t="n">
-        <v>487.1192190550462</v>
+        <v>502.2478946348062</v>
       </c>
       <c r="M4" t="n">
-        <v>776.3832754955395</v>
+        <v>791.5119510752995</v>
       </c>
       <c r="N4" t="n">
-        <v>1057.22205788979</v>
+        <v>1072.35073346955</v>
       </c>
       <c r="O4" t="n">
-        <v>1316.782668216264</v>
+        <v>1331.911343796024</v>
       </c>
       <c r="P4" t="n">
-        <v>1522.458108465876</v>
+        <v>1537.586784045636</v>
       </c>
       <c r="Q4" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="R4" t="n">
-        <v>1502.713419943787</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="S4" t="n">
-        <v>1316.321651823697</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="T4" t="n">
-        <v>1076.772912800399</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="U4" t="n">
-        <v>793.9747653465236</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="V4" t="n">
-        <v>521.6668023990892</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="W4" t="n">
-        <v>521.6668023990892</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="X4" t="n">
-        <v>283.3229402587725</v>
+        <v>1575.485172533713</v>
       </c>
       <c r="Y4" t="n">
-        <v>58.5872416475372</v>
+        <v>1350.749473922478</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>468.7118323342671</v>
+        <v>1710.859464122716</v>
       </c>
       <c r="C5" t="n">
-        <v>58.5872416475372</v>
+        <v>1300.734873435986</v>
       </c>
       <c r="D5" t="n">
-        <v>58.5872416475372</v>
+        <v>1300.734873435986</v>
       </c>
       <c r="E5" t="n">
-        <v>58.5872416475372</v>
+        <v>1300.734873435986</v>
       </c>
       <c r="F5" t="n">
-        <v>58.5872416475372</v>
+        <v>879.7044613896738</v>
       </c>
       <c r="G5" t="n">
-        <v>58.5872416475372</v>
+        <v>470.976177282506</v>
       </c>
       <c r="H5" t="n">
-        <v>58.5872416475372</v>
+        <v>160.067679910224</v>
       </c>
       <c r="I5" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J5" t="n">
-        <v>312.7727131152915</v>
+        <v>327.9013886950514</v>
       </c>
       <c r="K5" t="n">
-        <v>312.7727131152915</v>
+        <v>866.0608898040909</v>
       </c>
       <c r="L5" t="n">
-        <v>312.7727131152915</v>
+        <v>1578.652289616329</v>
       </c>
       <c r="M5" t="n">
-        <v>1037.789828503564</v>
+        <v>2354.970880608083</v>
       </c>
       <c r="N5" t="n">
-        <v>1756.574528040604</v>
+        <v>2472.451661339036</v>
       </c>
       <c r="O5" t="n">
-        <v>2400.205384457709</v>
+        <v>3116.082517756141</v>
       </c>
       <c r="P5" t="n">
-        <v>2929.36208237686</v>
+        <v>3645.239215675292</v>
       </c>
       <c r="Q5" t="n">
-        <v>2929.36208237686</v>
+        <v>3645.239215675292</v>
       </c>
       <c r="R5" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S5" t="n">
-        <v>2893.377914203696</v>
+        <v>3550.514786158958</v>
       </c>
       <c r="T5" t="n">
-        <v>2671.171430150554</v>
+        <v>3328.308302105817</v>
       </c>
       <c r="U5" t="n">
-        <v>2414.110938410065</v>
+        <v>3071.247810365327</v>
       </c>
       <c r="V5" t="n">
-        <v>2064.273383746545</v>
+        <v>2721.410255701808</v>
       </c>
       <c r="W5" t="n">
-        <v>1680.513082881714</v>
+        <v>2337.649954836976</v>
       </c>
       <c r="X5" t="n">
-        <v>1279.869685050666</v>
+        <v>2111.796137174626</v>
       </c>
       <c r="Y5" t="n">
-        <v>878.9330119987566</v>
+        <v>1710.859464122716</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>737.4180835340717</v>
+        <v>752.5467591138315</v>
       </c>
       <c r="C6" t="n">
-        <v>603.4230122830173</v>
+        <v>618.5516878627773</v>
       </c>
       <c r="D6" t="n">
-        <v>486.5258545024097</v>
+        <v>501.6545300821697</v>
       </c>
       <c r="E6" t="n">
-        <v>366.0330384947378</v>
+        <v>381.1617140744977</v>
       </c>
       <c r="F6" t="n">
-        <v>257.0731586772423</v>
+        <v>272.2018342570022</v>
       </c>
       <c r="G6" t="n">
-        <v>150.083045991581</v>
+        <v>165.2117215713409</v>
       </c>
       <c r="H6" t="n">
-        <v>79.33583302729703</v>
+        <v>94.46450860705697</v>
       </c>
       <c r="I6" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J6" t="n">
-        <v>58.5872416475372</v>
+        <v>266.5287747899304</v>
       </c>
       <c r="K6" t="n">
-        <v>514.3934979128359</v>
+        <v>405.3153859286313</v>
       </c>
       <c r="L6" t="n">
-        <v>514.3934979128359</v>
+        <v>1066.40355784792</v>
       </c>
       <c r="M6" t="n">
-        <v>514.3934979128359</v>
+        <v>1066.40355784792</v>
       </c>
       <c r="N6" t="n">
-        <v>1239.410613301109</v>
+        <v>1066.40355784792</v>
       </c>
       <c r="O6" t="n">
-        <v>1239.410613301109</v>
+        <v>1770.360648393814</v>
       </c>
       <c r="P6" t="n">
-        <v>1725.672453451424</v>
+        <v>1770.360648393814</v>
       </c>
       <c r="Q6" t="n">
-        <v>2075.516918135407</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="R6" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="S6" t="n">
-        <v>1997.086427612346</v>
+        <v>2012.215103192106</v>
       </c>
       <c r="T6" t="n">
-        <v>1837.744563799354</v>
+        <v>1852.873239379114</v>
       </c>
       <c r="U6" t="n">
-        <v>1640.393752937573</v>
+        <v>1655.522428517333</v>
       </c>
       <c r="V6" t="n">
-        <v>1426.682225930607</v>
+        <v>1441.810901510367</v>
       </c>
       <c r="W6" t="n">
-        <v>1213.449057666935</v>
+        <v>1228.577733246696</v>
       </c>
       <c r="X6" t="n">
-        <v>1037.123075805828</v>
+        <v>1052.251751385588</v>
       </c>
       <c r="Y6" t="n">
-        <v>877.7211161696583</v>
+        <v>892.8497917494182</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="C7" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="D7" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="E7" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="F7" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="G7" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H7" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I7" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J7" t="n">
-        <v>72.66979105274773</v>
+        <v>87.79846663250765</v>
       </c>
       <c r="K7" t="n">
-        <v>227.2221187749857</v>
+        <v>242.3507943547456</v>
       </c>
       <c r="L7" t="n">
-        <v>487.1192190550462</v>
+        <v>502.2478946348062</v>
       </c>
       <c r="M7" t="n">
-        <v>776.3832754955395</v>
+        <v>791.5119510752995</v>
       </c>
       <c r="N7" t="n">
-        <v>1057.22205788979</v>
+        <v>1072.35073346955</v>
       </c>
       <c r="O7" t="n">
-        <v>1316.782668216264</v>
+        <v>1331.911343796024</v>
       </c>
       <c r="P7" t="n">
-        <v>1522.458108465876</v>
+        <v>1537.586784045636</v>
       </c>
       <c r="Q7" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="R7" t="n">
-        <v>1587.986138268387</v>
+        <v>1517.842095523547</v>
       </c>
       <c r="S7" t="n">
-        <v>1559.933106210676</v>
+        <v>1331.450327403457</v>
       </c>
       <c r="T7" t="n">
-        <v>1320.384367187378</v>
+        <v>1091.901588380159</v>
       </c>
       <c r="U7" t="n">
-        <v>1037.586219733502</v>
+        <v>809.1034409262836</v>
       </c>
       <c r="V7" t="n">
-        <v>763.7004746730239</v>
+        <v>535.2176958658056</v>
       </c>
       <c r="W7" t="n">
-        <v>484.6308101818983</v>
+        <v>256.1480313746799</v>
       </c>
       <c r="X7" t="n">
-        <v>246.2869480415816</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="Y7" t="n">
-        <v>246.2869480415816</v>
+        <v>73.71591722729714</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1707.15008319106</v>
+        <v>1125.848704289529</v>
       </c>
       <c r="C8" t="n">
-        <v>1707.15008319106</v>
+        <v>715.7241136027993</v>
       </c>
       <c r="D8" t="n">
-        <v>1302.686153284121</v>
+        <v>581.0980919565365</v>
       </c>
       <c r="E8" t="n">
-        <v>888.3459378010175</v>
+        <v>581.0980919565365</v>
       </c>
       <c r="F8" t="n">
-        <v>467.315525754705</v>
+        <v>160.067679910224</v>
       </c>
       <c r="G8" t="n">
-        <v>58.5872416475372</v>
+        <v>160.067679910224</v>
       </c>
       <c r="H8" t="n">
-        <v>58.5872416475372</v>
+        <v>160.067679910224</v>
       </c>
       <c r="I8" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J8" t="n">
-        <v>58.5872416475372</v>
+        <v>327.9013886950514</v>
       </c>
       <c r="K8" t="n">
-        <v>58.5872416475372</v>
+        <v>327.9013886950514</v>
       </c>
       <c r="L8" t="n">
-        <v>771.1786414597752</v>
+        <v>621.7910469133716</v>
       </c>
       <c r="M8" t="n">
-        <v>1496.195756848048</v>
+        <v>1398.109637905126</v>
       </c>
       <c r="N8" t="n">
-        <v>2221.212872236321</v>
+        <v>2151.290654543744</v>
       </c>
       <c r="O8" t="n">
-        <v>2864.843728653426</v>
+        <v>2794.921510960849</v>
       </c>
       <c r="P8" t="n">
-        <v>2929.36208237686</v>
+        <v>3324.07820888</v>
       </c>
       <c r="Q8" t="n">
-        <v>2929.36208237686</v>
+        <v>3645.239215675292</v>
       </c>
       <c r="R8" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S8" t="n">
-        <v>2929.36208237686</v>
+        <v>3550.514786158958</v>
       </c>
       <c r="T8" t="n">
-        <v>2929.36208237686</v>
+        <v>3328.308302105817</v>
       </c>
       <c r="U8" t="n">
-        <v>2929.36208237686</v>
+        <v>3071.247810365327</v>
       </c>
       <c r="V8" t="n">
-        <v>2929.36208237686</v>
+        <v>2721.410255701808</v>
       </c>
       <c r="W8" t="n">
-        <v>2918.951333738507</v>
+        <v>2337.649954836976</v>
       </c>
       <c r="X8" t="n">
-        <v>2518.30793590746</v>
+        <v>1937.006557005929</v>
       </c>
       <c r="Y8" t="n">
-        <v>2117.37126285555</v>
+        <v>1536.069883954019</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>737.4180835340717</v>
+        <v>752.5467591138315</v>
       </c>
       <c r="C9" t="n">
-        <v>603.4230122830173</v>
+        <v>618.5516878627773</v>
       </c>
       <c r="D9" t="n">
-        <v>486.5258545024097</v>
+        <v>501.6545300821697</v>
       </c>
       <c r="E9" t="n">
-        <v>366.0330384947378</v>
+        <v>381.1617140744977</v>
       </c>
       <c r="F9" t="n">
-        <v>257.0731586772423</v>
+        <v>272.2018342570022</v>
       </c>
       <c r="G9" t="n">
-        <v>150.083045991581</v>
+        <v>165.2117215713409</v>
       </c>
       <c r="H9" t="n">
-        <v>79.33583302729703</v>
+        <v>94.46450860705697</v>
       </c>
       <c r="I9" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J9" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K9" t="n">
-        <v>514.3934979128359</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="L9" t="n">
-        <v>1175.481669832124</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="M9" t="n">
-        <v>1175.481669832124</v>
+        <v>542.5899304202851</v>
       </c>
       <c r="N9" t="n">
-        <v>1900.498785220397</v>
+        <v>1416.248022531903</v>
       </c>
       <c r="O9" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="P9" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="Q9" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="R9" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="S9" t="n">
-        <v>1997.086427612346</v>
+        <v>2012.215103192106</v>
       </c>
       <c r="T9" t="n">
-        <v>1837.744563799354</v>
+        <v>1852.873239379114</v>
       </c>
       <c r="U9" t="n">
-        <v>1640.393752937573</v>
+        <v>1655.522428517333</v>
       </c>
       <c r="V9" t="n">
-        <v>1426.682225930607</v>
+        <v>1441.810901510367</v>
       </c>
       <c r="W9" t="n">
-        <v>1213.449057666935</v>
+        <v>1228.577733246696</v>
       </c>
       <c r="X9" t="n">
-        <v>1037.123075805828</v>
+        <v>1052.251751385588</v>
       </c>
       <c r="Y9" t="n">
-        <v>877.7211161696583</v>
+        <v>892.8497917494182</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="C10" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="D10" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="E10" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="F10" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="G10" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H10" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I10" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J10" t="n">
-        <v>72.66979105274773</v>
+        <v>87.79846663250765</v>
       </c>
       <c r="K10" t="n">
-        <v>227.2221187749857</v>
+        <v>242.3507943547456</v>
       </c>
       <c r="L10" t="n">
-        <v>487.1192190550462</v>
+        <v>502.2478946348062</v>
       </c>
       <c r="M10" t="n">
-        <v>776.3832754955395</v>
+        <v>791.5119510752995</v>
       </c>
       <c r="N10" t="n">
-        <v>1057.22205788979</v>
+        <v>1072.35073346955</v>
       </c>
       <c r="O10" t="n">
-        <v>1316.782668216264</v>
+        <v>1331.911343796024</v>
       </c>
       <c r="P10" t="n">
-        <v>1522.458108465876</v>
+        <v>1537.586784045636</v>
       </c>
       <c r="Q10" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="R10" t="n">
-        <v>1502.713419943787</v>
+        <v>1517.842095523547</v>
       </c>
       <c r="S10" t="n">
-        <v>1502.713419943787</v>
+        <v>1331.450327403457</v>
       </c>
       <c r="T10" t="n">
-        <v>1502.713419943787</v>
+        <v>1091.901588380159</v>
       </c>
       <c r="U10" t="n">
-        <v>1262.321918344737</v>
+        <v>809.1034409262836</v>
       </c>
       <c r="V10" t="n">
-        <v>988.4361732842592</v>
+        <v>535.2176958658056</v>
       </c>
       <c r="W10" t="n">
-        <v>709.3665087931336</v>
+        <v>256.1480313746799</v>
       </c>
       <c r="X10" t="n">
-        <v>471.0226466528169</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="Y10" t="n">
-        <v>246.2869480415816</v>
+        <v>73.71591722729714</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>472.9274571306405</v>
+        <v>1740.396755289059</v>
       </c>
       <c r="C11" t="n">
-        <v>472.9274571306405</v>
+        <v>1330.272164602329</v>
       </c>
       <c r="D11" t="n">
-        <v>472.9274571306405</v>
+        <v>1330.272164602329</v>
       </c>
       <c r="E11" t="n">
-        <v>58.5872416475372</v>
+        <v>915.9319491192259</v>
       </c>
       <c r="F11" t="n">
-        <v>58.5872416475372</v>
+        <v>494.9015370729135</v>
       </c>
       <c r="G11" t="n">
-        <v>58.5872416475372</v>
+        <v>86.17325296574563</v>
       </c>
       <c r="H11" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I11" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J11" t="n">
-        <v>58.5872416475372</v>
+        <v>327.9013886950514</v>
       </c>
       <c r="K11" t="n">
-        <v>526.9617039639522</v>
+        <v>866.0608898040909</v>
       </c>
       <c r="L11" t="n">
-        <v>1239.55310377619</v>
+        <v>1578.652289616329</v>
       </c>
       <c r="M11" t="n">
-        <v>1964.570219164463</v>
+        <v>2354.970880608083</v>
       </c>
       <c r="N11" t="n">
-        <v>1964.570219164463</v>
+        <v>3108.151897246701</v>
       </c>
       <c r="O11" t="n">
-        <v>2608.201075581568</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="P11" t="n">
-        <v>2608.201075581568</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="Q11" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="R11" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S11" t="n">
-        <v>2794.081007170961</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="T11" t="n">
-        <v>2571.87452311782</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="U11" t="n">
-        <v>2314.81403137733</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="V11" t="n">
-        <v>1964.976476713811</v>
+        <v>3335.958306701338</v>
       </c>
       <c r="W11" t="n">
-        <v>1581.216175848979</v>
+        <v>2952.198005836506</v>
       </c>
       <c r="X11" t="n">
-        <v>1180.572778017932</v>
+        <v>2551.554608005459</v>
       </c>
       <c r="Y11" t="n">
-        <v>779.6361049660221</v>
+        <v>2150.617934953549</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>737.4180835340717</v>
+        <v>752.5467591138315</v>
       </c>
       <c r="C12" t="n">
-        <v>603.4230122830173</v>
+        <v>618.5516878627773</v>
       </c>
       <c r="D12" t="n">
-        <v>486.5258545024097</v>
+        <v>501.6545300821697</v>
       </c>
       <c r="E12" t="n">
-        <v>366.0330384947378</v>
+        <v>381.1617140744977</v>
       </c>
       <c r="F12" t="n">
-        <v>257.0731586772423</v>
+        <v>272.2018342570022</v>
       </c>
       <c r="G12" t="n">
-        <v>150.083045991581</v>
+        <v>165.2117215713409</v>
       </c>
       <c r="H12" t="n">
-        <v>79.33583302729703</v>
+        <v>94.46450860705697</v>
       </c>
       <c r="I12" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J12" t="n">
-        <v>251.4000992101705</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K12" t="n">
-        <v>707.2063554754692</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="L12" t="n">
-        <v>1051.274882268159</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="M12" t="n">
-        <v>1051.274882268159</v>
+        <v>542.5899304202851</v>
       </c>
       <c r="N12" t="n">
-        <v>1051.274882268159</v>
+        <v>1416.248022531903</v>
       </c>
       <c r="O12" t="n">
-        <v>1755.231972814054</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="P12" t="n">
-        <v>1755.231972814054</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="Q12" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="R12" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="S12" t="n">
-        <v>1997.086427612346</v>
+        <v>2012.215103192106</v>
       </c>
       <c r="T12" t="n">
-        <v>1837.744563799354</v>
+        <v>1852.873239379114</v>
       </c>
       <c r="U12" t="n">
-        <v>1640.393752937573</v>
+        <v>1655.522428517333</v>
       </c>
       <c r="V12" t="n">
-        <v>1426.682225930607</v>
+        <v>1441.810901510367</v>
       </c>
       <c r="W12" t="n">
-        <v>1213.449057666935</v>
+        <v>1228.577733246696</v>
       </c>
       <c r="X12" t="n">
-        <v>1037.123075805828</v>
+        <v>1052.251751385588</v>
       </c>
       <c r="Y12" t="n">
-        <v>877.7211161696583</v>
+        <v>892.8497917494182</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>341.1051145315827</v>
+        <v>1163.049767528434</v>
       </c>
       <c r="C13" t="n">
-        <v>341.1051145315827</v>
+        <v>991.9563950901502</v>
       </c>
       <c r="D13" t="n">
-        <v>341.1051145315827</v>
+        <v>832.4617504130601</v>
       </c>
       <c r="E13" t="n">
-        <v>341.1051145315827</v>
+        <v>671.5509352813797</v>
       </c>
       <c r="F13" t="n">
-        <v>341.1051145315827</v>
+        <v>506.9198093919709</v>
       </c>
       <c r="G13" t="n">
-        <v>174.9332875432111</v>
+        <v>339.6694183175143</v>
       </c>
       <c r="H13" t="n">
-        <v>174.9332875432111</v>
+        <v>190.061963122971</v>
       </c>
       <c r="I13" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J13" t="n">
-        <v>72.66979105274773</v>
+        <v>87.79846663250765</v>
       </c>
       <c r="K13" t="n">
-        <v>227.2221187749857</v>
+        <v>242.3507943547456</v>
       </c>
       <c r="L13" t="n">
-        <v>487.1192190550462</v>
+        <v>502.2478946348062</v>
       </c>
       <c r="M13" t="n">
-        <v>776.3832754955395</v>
+        <v>791.5119510752995</v>
       </c>
       <c r="N13" t="n">
-        <v>1057.22205788979</v>
+        <v>1072.35073346955</v>
       </c>
       <c r="O13" t="n">
-        <v>1316.782668216264</v>
+        <v>1331.911343796024</v>
       </c>
       <c r="P13" t="n">
-        <v>1522.458108465876</v>
+        <v>1537.586784045636</v>
       </c>
       <c r="Q13" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="R13" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="S13" t="n">
-        <v>1401.594370148297</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="T13" t="n">
-        <v>1401.594370148297</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="U13" t="n">
-        <v>1118.796222694422</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="V13" t="n">
-        <v>844.9104776339436</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="W13" t="n">
-        <v>565.840813142818</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="X13" t="n">
-        <v>565.840813142818</v>
+        <v>1575.485172533713</v>
       </c>
       <c r="Y13" t="n">
-        <v>341.1051145315827</v>
+        <v>1350.749473922478</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2100.194718449896</v>
+        <v>1628.723326236163</v>
       </c>
       <c r="C14" t="n">
-        <v>1690.070127763166</v>
+        <v>1628.723326236163</v>
       </c>
       <c r="D14" t="n">
-        <v>1285.606197856226</v>
+        <v>1628.723326236163</v>
       </c>
       <c r="E14" t="n">
-        <v>1285.606197856226</v>
+        <v>1214.38311075306</v>
       </c>
       <c r="F14" t="n">
-        <v>864.5757858099139</v>
+        <v>793.352698706747</v>
       </c>
       <c r="G14" t="n">
-        <v>455.8475017027461</v>
+        <v>384.6244145995792</v>
       </c>
       <c r="H14" t="n">
-        <v>144.9390043304641</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I14" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J14" t="n">
-        <v>312.7727131152915</v>
+        <v>327.9013886950514</v>
       </c>
       <c r="K14" t="n">
-        <v>850.932214224331</v>
+        <v>866.0608898040909</v>
       </c>
       <c r="L14" t="n">
-        <v>850.932214224331</v>
+        <v>1578.652289616329</v>
       </c>
       <c r="M14" t="n">
-        <v>1575.949329612604</v>
+        <v>2354.970880608083</v>
       </c>
       <c r="N14" t="n">
-        <v>1756.574528040604</v>
+        <v>3108.151897246701</v>
       </c>
       <c r="O14" t="n">
-        <v>2400.205384457709</v>
+        <v>3324.07820888</v>
       </c>
       <c r="P14" t="n">
-        <v>2929.36208237686</v>
+        <v>3324.07820888</v>
       </c>
       <c r="Q14" t="n">
-        <v>2929.36208237686</v>
+        <v>3645.239215675292</v>
       </c>
       <c r="R14" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S14" t="n">
-        <v>2794.081007170961</v>
+        <v>3550.514786158958</v>
       </c>
       <c r="T14" t="n">
-        <v>2571.87452311782</v>
+        <v>3328.308302105817</v>
       </c>
       <c r="U14" t="n">
-        <v>2510.415898114386</v>
+        <v>3071.247810365327</v>
       </c>
       <c r="V14" t="n">
-        <v>2510.415898114386</v>
+        <v>2840.52457678361</v>
       </c>
       <c r="W14" t="n">
-        <v>2510.415898114386</v>
+        <v>2840.52457678361</v>
       </c>
       <c r="X14" t="n">
-        <v>2510.415898114386</v>
+        <v>2439.881178952562</v>
       </c>
       <c r="Y14" t="n">
-        <v>2510.415898114386</v>
+        <v>2038.944505900652</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>737.4180835340717</v>
+        <v>752.5467591138315</v>
       </c>
       <c r="C15" t="n">
-        <v>603.4230122830173</v>
+        <v>618.5516878627773</v>
       </c>
       <c r="D15" t="n">
-        <v>486.5258545024097</v>
+        <v>501.6545300821697</v>
       </c>
       <c r="E15" t="n">
-        <v>366.0330384947378</v>
+        <v>381.1617140744977</v>
       </c>
       <c r="F15" t="n">
-        <v>257.0731586772423</v>
+        <v>272.2018342570022</v>
       </c>
       <c r="G15" t="n">
-        <v>150.083045991581</v>
+        <v>165.2117215713409</v>
       </c>
       <c r="H15" t="n">
-        <v>79.33583302729703</v>
+        <v>94.46450860705697</v>
       </c>
       <c r="I15" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J15" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K15" t="n">
-        <v>514.3934979128359</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="L15" t="n">
-        <v>839.4134544636129</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="M15" t="n">
-        <v>839.4134544636129</v>
+        <v>542.5899304202851</v>
       </c>
       <c r="N15" t="n">
-        <v>839.4134544636129</v>
+        <v>1416.248022531903</v>
       </c>
       <c r="O15" t="n">
-        <v>1543.370545009507</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="P15" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="Q15" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="R15" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="S15" t="n">
-        <v>1997.086427612346</v>
+        <v>2012.215103192106</v>
       </c>
       <c r="T15" t="n">
-        <v>1837.744563799354</v>
+        <v>1852.873239379114</v>
       </c>
       <c r="U15" t="n">
-        <v>1640.393752937573</v>
+        <v>1655.522428517333</v>
       </c>
       <c r="V15" t="n">
-        <v>1426.682225930607</v>
+        <v>1441.810901510367</v>
       </c>
       <c r="W15" t="n">
-        <v>1213.449057666935</v>
+        <v>1228.577733246696</v>
       </c>
       <c r="X15" t="n">
-        <v>1037.123075805828</v>
+        <v>1052.251751385588</v>
       </c>
       <c r="Y15" t="n">
-        <v>877.7211161696583</v>
+        <v>892.8497917494182</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>58.5872416475372</v>
+        <v>535.2176958658056</v>
       </c>
       <c r="C16" t="n">
-        <v>58.5872416475372</v>
+        <v>535.2176958658056</v>
       </c>
       <c r="D16" t="n">
-        <v>58.5872416475372</v>
+        <v>535.2176958658056</v>
       </c>
       <c r="E16" t="n">
-        <v>58.5872416475372</v>
+        <v>535.2176958658056</v>
       </c>
       <c r="F16" t="n">
-        <v>58.5872416475372</v>
+        <v>506.9198093919709</v>
       </c>
       <c r="G16" t="n">
-        <v>58.5872416475372</v>
+        <v>339.6694183175143</v>
       </c>
       <c r="H16" t="n">
-        <v>58.5872416475372</v>
+        <v>190.061963122971</v>
       </c>
       <c r="I16" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J16" t="n">
-        <v>72.66979105274773</v>
+        <v>87.79846663250765</v>
       </c>
       <c r="K16" t="n">
-        <v>227.2221187749857</v>
+        <v>242.3507943547456</v>
       </c>
       <c r="L16" t="n">
-        <v>487.1192190550462</v>
+        <v>502.2478946348062</v>
       </c>
       <c r="M16" t="n">
-        <v>776.3832754955395</v>
+        <v>791.5119510752995</v>
       </c>
       <c r="N16" t="n">
-        <v>1057.22205788979</v>
+        <v>1072.35073346955</v>
       </c>
       <c r="O16" t="n">
-        <v>1316.782668216264</v>
+        <v>1331.911343796024</v>
       </c>
       <c r="P16" t="n">
-        <v>1522.458108465876</v>
+        <v>1537.586784045636</v>
       </c>
       <c r="Q16" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="R16" t="n">
-        <v>1502.713419943787</v>
+        <v>1517.842095523547</v>
       </c>
       <c r="S16" t="n">
-        <v>1316.321651823697</v>
+        <v>1331.450327403457</v>
       </c>
       <c r="T16" t="n">
-        <v>1076.772912800399</v>
+        <v>1091.901588380159</v>
       </c>
       <c r="U16" t="n">
-        <v>793.9747653465236</v>
+        <v>809.1034409262836</v>
       </c>
       <c r="V16" t="n">
-        <v>520.0890202860455</v>
+        <v>535.2176958658056</v>
       </c>
       <c r="W16" t="n">
-        <v>241.0193557949199</v>
+        <v>535.2176958658056</v>
       </c>
       <c r="X16" t="n">
-        <v>58.5872416475372</v>
+        <v>535.2176958658056</v>
       </c>
       <c r="Y16" t="n">
-        <v>58.5872416475372</v>
+        <v>535.2176958658056</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2102.237727455811</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C17" t="n">
-        <v>1692.113136769081</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D17" t="n">
-        <v>1287.649206862142</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E17" t="n">
-        <v>873.3089913790386</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F17" t="n">
-        <v>452.2785793327262</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G17" t="n">
-        <v>93.2436976906228</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H17" t="n">
         <v>93.2436976906228</v>
@@ -5540,25 +5542,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S17" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T17" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U17" t="n">
-        <v>4047.636833531609</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V17" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W17" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X17" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y17" t="n">
-        <v>2512.458907120301</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="18">
@@ -5601,19 +5603,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M18" t="n">
-        <v>532.5581915209807</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N18" t="n">
-        <v>1406.216283632599</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O18" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P18" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q18" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R18" t="n">
         <v>2139.732893541123</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>637.2161470827474</v>
+        <v>266.8531555313633</v>
       </c>
       <c r="C19" t="n">
-        <v>466.1227746444639</v>
+        <v>95.75978309307982</v>
       </c>
       <c r="D19" t="n">
-        <v>306.6281299673739</v>
+        <v>95.75978309307982</v>
       </c>
       <c r="E19" t="n">
-        <v>306.6281299673739</v>
+        <v>95.75978309307982</v>
       </c>
       <c r="F19" t="n">
-        <v>306.6281299673739</v>
+        <v>95.75978309307982</v>
       </c>
       <c r="G19" t="n">
-        <v>139.3777388929173</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H19" t="n">
         <v>93.2436976906228</v>
@@ -5698,25 +5700,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S19" t="n">
-        <v>1622.642594311473</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T19" t="n">
-        <v>1383.093855288175</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="U19" t="n">
-        <v>1100.295707834299</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="V19" t="n">
-        <v>1100.295707834299</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="W19" t="n">
-        <v>1100.295707834299</v>
+        <v>917.6324226769595</v>
       </c>
       <c r="X19" t="n">
-        <v>861.9518456939827</v>
+        <v>679.288560536643</v>
       </c>
       <c r="Y19" t="n">
-        <v>637.2161470827474</v>
+        <v>454.5528619254077</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2237.518802661711</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C20" t="n">
-        <v>1827.394211974981</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D20" t="n">
-        <v>1422.930282068041</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E20" t="n">
-        <v>1008.590066584938</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F20" t="n">
-        <v>587.5596545386256</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G20" t="n">
-        <v>404.1521950629048</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H20" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I20" t="n">
         <v>93.2436976906228</v>
@@ -5777,25 +5779,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S20" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T20" t="n">
-        <v>4439.978400477999</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U20" t="n">
-        <v>4182.917908737509</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V20" t="n">
-        <v>3833.080354073989</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W20" t="n">
-        <v>3449.320053209158</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X20" t="n">
-        <v>3048.67665537811</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y20" t="n">
-        <v>2647.7399823262</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="21">
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>425.1252146544881</v>
+        <v>827.6148396568026</v>
       </c>
       <c r="C22" t="n">
-        <v>425.1252146544881</v>
+        <v>827.6148396568026</v>
       </c>
       <c r="D22" t="n">
-        <v>425.1252146544881</v>
+        <v>827.6148396568026</v>
       </c>
       <c r="E22" t="n">
-        <v>425.1252146544881</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F22" t="n">
-        <v>260.4940887650794</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G22" t="n">
-        <v>93.2436976906228</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H22" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I22" t="n">
         <v>93.2436976906228</v>
@@ -5941,19 +5943,19 @@
         <v>1622.642594311473</v>
       </c>
       <c r="U22" t="n">
-        <v>1622.642594311473</v>
+        <v>1339.844446857597</v>
       </c>
       <c r="V22" t="n">
-        <v>1354.97414629121</v>
+        <v>1065.958701797119</v>
       </c>
       <c r="W22" t="n">
-        <v>1075.904481800084</v>
+        <v>1065.958701797119</v>
       </c>
       <c r="X22" t="n">
-        <v>837.5606196597678</v>
+        <v>827.6148396568026</v>
       </c>
       <c r="Y22" t="n">
-        <v>612.8249210485325</v>
+        <v>827.6148396568026</v>
       </c>
     </row>
     <row r="23">
@@ -5972,10 +5974,10 @@
         <v>1287.649206862142</v>
       </c>
       <c r="E23" t="n">
-        <v>873.3089913790386</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F23" t="n">
-        <v>452.2785793327262</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G23" t="n">
         <v>404.1521950629048</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>548.5451751656769</v>
+        <v>4011.405617385543</v>
       </c>
       <c r="C25" t="n">
-        <v>548.5451751656769</v>
+        <v>3840.31224494726</v>
       </c>
       <c r="D25" t="n">
-        <v>548.5451751656769</v>
+        <v>3680.81760027017</v>
       </c>
       <c r="E25" t="n">
-        <v>548.5451751656769</v>
+        <v>3519.906785138489</v>
       </c>
       <c r="F25" t="n">
-        <v>410.1015439596227</v>
+        <v>3355.27565924908</v>
       </c>
       <c r="G25" t="n">
-        <v>242.8511528851661</v>
+        <v>3188.025268174624</v>
       </c>
       <c r="H25" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="I25" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J25" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K25" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L25" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M25" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N25" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O25" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P25" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q25" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R25" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S25" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T25" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U25" t="n">
-        <v>1339.844446857597</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="V25" t="n">
-        <v>1065.958701797119</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="W25" t="n">
-        <v>786.8890373059935</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="X25" t="n">
-        <v>548.5451751656769</v>
+        <v>4423.841022390823</v>
       </c>
       <c r="Y25" t="n">
-        <v>548.5451751656769</v>
+        <v>4199.105323779588</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2238.282892603803</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C26" t="n">
-        <v>1828.158301917073</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D26" t="n">
-        <v>1423.694372010133</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E26" t="n">
-        <v>1009.35415652703</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F26" t="n">
-        <v>588.3237444807176</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G26" t="n">
-        <v>179.5954603735497</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H26" t="n">
         <v>179.5954603735497</v>
@@ -6254,22 +6256,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T26" t="n">
-        <v>4304.697325272099</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U26" t="n">
-        <v>4183.681998679601</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V26" t="n">
-        <v>3833.844444016082</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W26" t="n">
-        <v>3450.08414315125</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X26" t="n">
-        <v>3049.440745320202</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y26" t="n">
-        <v>2648.504072268292</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="27">
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4144.771357899697</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="C28" t="n">
-        <v>4051.026465773143</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="D28" t="n">
-        <v>3891.531821096053</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="E28" t="n">
-        <v>3730.621005964372</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="F28" t="n">
-        <v>3565.989880074963</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="G28" t="n">
-        <v>3398.739489000507</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="H28" t="n">
-        <v>3249.132033805963</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="I28" t="n">
         <v>3132.785987910289</v>
@@ -6406,28 +6408,28 @@
         <v>4662.18488453114</v>
       </c>
       <c r="R28" t="n">
-        <v>4662.18488453114</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="S28" t="n">
-        <v>4662.18488453114</v>
+        <v>4390.520398086449</v>
       </c>
       <c r="T28" t="n">
-        <v>4662.18488453114</v>
+        <v>4150.971659063151</v>
       </c>
       <c r="U28" t="n">
-        <v>4662.18488453114</v>
+        <v>3868.173511609275</v>
       </c>
       <c r="V28" t="n">
-        <v>4662.18488453114</v>
+        <v>3594.287766548796</v>
       </c>
       <c r="W28" t="n">
-        <v>4383.115220040014</v>
+        <v>3315.218102057671</v>
       </c>
       <c r="X28" t="n">
-        <v>4144.771357899697</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="Y28" t="n">
-        <v>4144.771357899697</v>
+        <v>3132.785987910289</v>
       </c>
     </row>
     <row r="29">
@@ -6449,7 +6451,7 @@
         <v>873.3089913790386</v>
       </c>
       <c r="F29" t="n">
-        <v>501.9719817977906</v>
+        <v>452.2785793327262</v>
       </c>
       <c r="G29" t="n">
         <v>93.2436976906228</v>
@@ -6549,10 +6551,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M30" t="n">
-        <v>936.2207783851894</v>
+        <v>562.1177108836107</v>
       </c>
       <c r="N30" t="n">
-        <v>1809.878870496807</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O30" t="n">
         <v>2139.732893541123</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4222.119838211426</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="C31" t="n">
-        <v>4051.026465773143</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="D31" t="n">
-        <v>3891.531821096053</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E31" t="n">
-        <v>3730.621005964372</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F31" t="n">
-        <v>3565.989880074963</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G31" t="n">
-        <v>3398.739489000507</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H31" t="n">
-        <v>3249.132033805963</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I31" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J31" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K31" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L31" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M31" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N31" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O31" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P31" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q31" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R31" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S31" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T31" t="n">
-        <v>4662.18488453114</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U31" t="n">
-        <v>4662.18488453114</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="V31" t="n">
-        <v>4662.18488453114</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="W31" t="n">
-        <v>4662.18488453114</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="X31" t="n">
-        <v>4634.555243216706</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="Y31" t="n">
-        <v>4409.819544605471</v>
+        <v>1370.277254385804</v>
       </c>
     </row>
     <row r="32">
@@ -6780,19 +6782,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K33" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L33" t="n">
-        <v>754.331869609911</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="M33" t="n">
-        <v>1597.308950304478</v>
+        <v>1392.027034650488</v>
       </c>
       <c r="N33" t="n">
-        <v>1597.308950304478</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="O33" t="n">
-        <v>2139.732893541123</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P33" t="n">
         <v>2139.732893541123</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3581.136221375927</v>
+        <v>418.9079176142731</v>
       </c>
       <c r="C34" t="n">
-        <v>3410.042848937644</v>
+        <v>247.8145451759896</v>
       </c>
       <c r="D34" t="n">
-        <v>3410.042848937644</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E34" t="n">
-        <v>3249.132033805963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F34" t="n">
-        <v>3249.132033805963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G34" t="n">
-        <v>3249.132033805963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H34" t="n">
-        <v>3249.132033805963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J34" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K34" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L34" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M34" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N34" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O34" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P34" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q34" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R34" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S34" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T34" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U34" t="n">
-        <v>4294.114018752663</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="V34" t="n">
-        <v>4020.228273692185</v>
+        <v>1348.756849250995</v>
       </c>
       <c r="W34" t="n">
-        <v>4007.179789910288</v>
+        <v>1069.687184759869</v>
       </c>
       <c r="X34" t="n">
-        <v>3768.835927769971</v>
+        <v>831.3433226195527</v>
       </c>
       <c r="Y34" t="n">
-        <v>3768.835927769971</v>
+        <v>606.6076240083174</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2102.237727455811</v>
+        <v>2238.282892603803</v>
       </c>
       <c r="C35" t="n">
-        <v>1692.113136769081</v>
+        <v>1828.158301917073</v>
       </c>
       <c r="D35" t="n">
-        <v>1287.649206862142</v>
+        <v>1423.694372010133</v>
       </c>
       <c r="E35" t="n">
-        <v>873.3089913790386</v>
+        <v>1009.35415652703</v>
       </c>
       <c r="F35" t="n">
-        <v>501.9719817977906</v>
+        <v>588.3237444807176</v>
       </c>
       <c r="G35" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="H35" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I35" t="n">
         <v>93.2436976906228</v>
@@ -6962,25 +6964,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S35" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T35" t="n">
-        <v>4304.697325272099</v>
+        <v>4440.742490420091</v>
       </c>
       <c r="U35" t="n">
-        <v>4047.636833531609</v>
+        <v>4183.681998679601</v>
       </c>
       <c r="V35" t="n">
-        <v>3697.79927886809</v>
+        <v>3833.844444016082</v>
       </c>
       <c r="W35" t="n">
-        <v>3314.038978003258</v>
+        <v>3450.08414315125</v>
       </c>
       <c r="X35" t="n">
-        <v>2913.395580172211</v>
+        <v>3049.440745320202</v>
       </c>
       <c r="Y35" t="n">
-        <v>2512.458907120301</v>
+        <v>2648.504072268292</v>
       </c>
     </row>
     <row r="36">
@@ -7023,16 +7025,16 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M36" t="n">
-        <v>936.2207783851894</v>
+        <v>916.2303367455215</v>
       </c>
       <c r="N36" t="n">
-        <v>1809.878870496807</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="O36" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="P36" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q36" t="n">
         <v>2139.732893541123</v>
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>984.4144664352689</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C37" t="n">
-        <v>813.3210939969854</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D37" t="n">
-        <v>653.8264493198953</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E37" t="n">
-        <v>574.7326698490315</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F37" t="n">
-        <v>410.1015439596227</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G37" t="n">
-        <v>242.8511528851661</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H37" t="n">
         <v>93.2436976906228</v>
@@ -7117,28 +7119,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R37" t="n">
-        <v>1537.369875986873</v>
+        <v>1593.281623979807</v>
       </c>
       <c r="S37" t="n">
-        <v>1537.369875986873</v>
+        <v>1406.889855859717</v>
       </c>
       <c r="T37" t="n">
-        <v>1537.369875986873</v>
+        <v>1167.341116836419</v>
       </c>
       <c r="U37" t="n">
-        <v>1537.369875986873</v>
+        <v>884.5429693825431</v>
       </c>
       <c r="V37" t="n">
-        <v>1263.484130926395</v>
+        <v>610.6572243220651</v>
       </c>
       <c r="W37" t="n">
-        <v>984.4144664352689</v>
+        <v>331.5875598309394</v>
       </c>
       <c r="X37" t="n">
-        <v>984.4144664352689</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="Y37" t="n">
-        <v>984.4144664352689</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2102.237727455811</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C38" t="n">
-        <v>1692.113136769081</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D38" t="n">
-        <v>1287.649206862142</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E38" t="n">
-        <v>873.3089913790386</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F38" t="n">
-        <v>452.2785793327262</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G38" t="n">
-        <v>93.2436976906228</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H38" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I38" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J38" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K38" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L38" t="n">
         <v>1598.180070079655</v>
@@ -7199,25 +7201,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S38" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T38" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U38" t="n">
-        <v>4047.636833531609</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V38" t="n">
-        <v>3697.79927886809</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W38" t="n">
-        <v>3314.038978003258</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X38" t="n">
-        <v>2913.395580172211</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y38" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>772.0745395771571</v>
+        <v>3294.526530567174</v>
       </c>
       <c r="C39" t="n">
-        <v>638.0794683261029</v>
+        <v>3160.531459316119</v>
       </c>
       <c r="D39" t="n">
-        <v>521.1823105454953</v>
+        <v>3043.634301535512</v>
       </c>
       <c r="E39" t="n">
-        <v>400.6894945378233</v>
+        <v>2923.14148552784</v>
       </c>
       <c r="F39" t="n">
-        <v>291.7296147203278</v>
+        <v>2814.181605710345</v>
       </c>
       <c r="G39" t="n">
-        <v>184.7395020346666</v>
+        <v>2707.191493024683</v>
       </c>
       <c r="H39" t="n">
-        <v>113.9922890703826</v>
+        <v>2636.4442800604</v>
       </c>
       <c r="I39" t="n">
-        <v>93.2436976906228</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="J39" t="n">
-        <v>93.2436976906228</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="K39" t="n">
-        <v>93.2436976906228</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="L39" t="n">
-        <v>524.2254458227151</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="M39" t="n">
-        <v>524.2254458227151</v>
+        <v>3458.672769375206</v>
       </c>
       <c r="N39" t="n">
-        <v>524.2254458227151</v>
+        <v>4332.330861486824</v>
       </c>
       <c r="O39" t="n">
-        <v>1228.182536368609</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="P39" t="n">
-        <v>1789.888428857139</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="Q39" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R39" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S39" t="n">
-        <v>2031.742883655432</v>
+        <v>4554.194874645448</v>
       </c>
       <c r="T39" t="n">
-        <v>1872.40101984244</v>
+        <v>4394.853010832457</v>
       </c>
       <c r="U39" t="n">
-        <v>1675.050208980659</v>
+        <v>4197.502199970675</v>
       </c>
       <c r="V39" t="n">
-        <v>1461.338681973692</v>
+        <v>3983.790672963709</v>
       </c>
       <c r="W39" t="n">
-        <v>1248.105513710021</v>
+        <v>3770.557504700037</v>
       </c>
       <c r="X39" t="n">
-        <v>1071.779531848914</v>
+        <v>3594.23152283893</v>
       </c>
       <c r="Y39" t="n">
-        <v>912.3775722127438</v>
+        <v>3434.82956320276</v>
       </c>
     </row>
     <row r="40">
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>93.2436976906228</v>
+        <v>275.6758118380055</v>
       </c>
       <c r="C40" t="n">
-        <v>93.2436976906228</v>
+        <v>275.6758118380055</v>
       </c>
       <c r="D40" t="n">
-        <v>93.2436976906228</v>
+        <v>275.6758118380055</v>
       </c>
       <c r="E40" t="n">
-        <v>93.2436976906228</v>
+        <v>275.6758118380055</v>
       </c>
       <c r="F40" t="n">
-        <v>93.2436976906228</v>
+        <v>275.6758118380055</v>
       </c>
       <c r="G40" t="n">
-        <v>93.2436976906228</v>
+        <v>275.6758118380055</v>
       </c>
       <c r="H40" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I40" t="n">
         <v>93.2436976906228</v>
@@ -7354,28 +7356,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R40" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S40" t="n">
-        <v>1622.642594311473</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T40" t="n">
-        <v>1392.076815447654</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U40" t="n">
-        <v>1109.278667993779</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="V40" t="n">
-        <v>835.3929229333004</v>
+        <v>554.7454763291312</v>
       </c>
       <c r="W40" t="n">
-        <v>556.3232584421747</v>
+        <v>275.6758118380055</v>
       </c>
       <c r="X40" t="n">
-        <v>317.9793963018581</v>
+        <v>275.6758118380055</v>
       </c>
       <c r="Y40" t="n">
-        <v>93.2436976906228</v>
+        <v>275.6758118380055</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1333.800530964582</v>
+        <v>2125.199679605819</v>
       </c>
       <c r="C41" t="n">
-        <v>923.6759402778517</v>
+        <v>1715.075088919089</v>
       </c>
       <c r="D41" t="n">
-        <v>519.2120103709123</v>
+        <v>1715.075088919089</v>
       </c>
       <c r="E41" t="n">
-        <v>104.871794887809</v>
+        <v>1300.734873435986</v>
       </c>
       <c r="F41" t="n">
-        <v>104.871794887809</v>
+        <v>879.7044613896738</v>
       </c>
       <c r="G41" t="n">
-        <v>104.871794887809</v>
+        <v>470.976177282506</v>
       </c>
       <c r="H41" t="n">
-        <v>104.871794887809</v>
+        <v>160.067679910224</v>
       </c>
       <c r="I41" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J41" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K41" t="n">
-        <v>58.5872416475372</v>
+        <v>611.8754183363367</v>
       </c>
       <c r="L41" t="n">
-        <v>771.1786414597752</v>
+        <v>1324.466818148575</v>
       </c>
       <c r="M41" t="n">
-        <v>1496.195756848048</v>
+        <v>2100.785409140329</v>
       </c>
       <c r="N41" t="n">
-        <v>2221.212872236321</v>
+        <v>2472.451661339036</v>
       </c>
       <c r="O41" t="n">
-        <v>2864.843728653426</v>
+        <v>3116.082517756141</v>
       </c>
       <c r="P41" t="n">
-        <v>2929.36208237686</v>
+        <v>3645.239215675292</v>
       </c>
       <c r="Q41" t="n">
-        <v>2929.36208237686</v>
+        <v>3645.239215675292</v>
       </c>
       <c r="R41" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S41" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="T41" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="U41" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="V41" t="n">
-        <v>2929.36208237686</v>
+        <v>3335.958306701338</v>
       </c>
       <c r="W41" t="n">
-        <v>2545.601781512029</v>
+        <v>2952.198005836506</v>
       </c>
       <c r="X41" t="n">
-        <v>2144.958383680981</v>
+        <v>2551.554608005459</v>
       </c>
       <c r="Y41" t="n">
-        <v>1744.021710629071</v>
+        <v>2150.617934953549</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>737.4180835340717</v>
+        <v>752.5467591138315</v>
       </c>
       <c r="C42" t="n">
-        <v>603.4230122830173</v>
+        <v>618.5516878627773</v>
       </c>
       <c r="D42" t="n">
-        <v>486.5258545024097</v>
+        <v>501.6545300821697</v>
       </c>
       <c r="E42" t="n">
-        <v>366.0330384947378</v>
+        <v>381.1617140744977</v>
       </c>
       <c r="F42" t="n">
-        <v>257.0731586772423</v>
+        <v>272.2018342570022</v>
       </c>
       <c r="G42" t="n">
-        <v>150.083045991581</v>
+        <v>165.2117215713409</v>
       </c>
       <c r="H42" t="n">
-        <v>79.33583302729703</v>
+        <v>94.46450860705697</v>
       </c>
       <c r="I42" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J42" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K42" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="L42" t="n">
-        <v>275.6382226748781</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="M42" t="n">
-        <v>1000.655338063151</v>
+        <v>542.5899304202851</v>
       </c>
       <c r="N42" t="n">
-        <v>1725.672453451424</v>
+        <v>1416.248022531903</v>
       </c>
       <c r="O42" t="n">
-        <v>1725.672453451424</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="P42" t="n">
-        <v>1725.672453451424</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="Q42" t="n">
-        <v>2075.516918135407</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="R42" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="S42" t="n">
-        <v>1997.086427612346</v>
+        <v>2012.215103192106</v>
       </c>
       <c r="T42" t="n">
-        <v>1837.744563799354</v>
+        <v>1852.873239379114</v>
       </c>
       <c r="U42" t="n">
-        <v>1640.393752937573</v>
+        <v>1655.522428517333</v>
       </c>
       <c r="V42" t="n">
-        <v>1426.682225930607</v>
+        <v>1441.810901510367</v>
       </c>
       <c r="W42" t="n">
-        <v>1213.449057666935</v>
+        <v>1228.577733246696</v>
       </c>
       <c r="X42" t="n">
-        <v>1037.123075805828</v>
+        <v>1052.251751385588</v>
       </c>
       <c r="Y42" t="n">
-        <v>877.7211161696583</v>
+        <v>892.8497917494182</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>229.6806140858207</v>
+        <v>2647.895796991062</v>
       </c>
       <c r="C43" t="n">
-        <v>58.5872416475372</v>
+        <v>2476.802424552778</v>
       </c>
       <c r="D43" t="n">
-        <v>58.5872416475372</v>
+        <v>2317.307779875688</v>
       </c>
       <c r="E43" t="n">
-        <v>58.5872416475372</v>
+        <v>2156.396964744008</v>
       </c>
       <c r="F43" t="n">
-        <v>58.5872416475372</v>
+        <v>2156.396964744008</v>
       </c>
       <c r="G43" t="n">
-        <v>58.5872416475372</v>
+        <v>2156.396964744008</v>
       </c>
       <c r="H43" t="n">
-        <v>58.5872416475372</v>
+        <v>2156.396964744008</v>
       </c>
       <c r="I43" t="n">
-        <v>58.5872416475372</v>
+        <v>2156.396964744008</v>
       </c>
       <c r="J43" t="n">
-        <v>72.66979105274773</v>
+        <v>2170.479514149218</v>
       </c>
       <c r="K43" t="n">
-        <v>227.2221187749857</v>
+        <v>2325.031841871456</v>
       </c>
       <c r="L43" t="n">
-        <v>487.1192190550462</v>
+        <v>2584.928942151516</v>
       </c>
       <c r="M43" t="n">
-        <v>776.3832754955395</v>
+        <v>2874.19299859201</v>
       </c>
       <c r="N43" t="n">
-        <v>1057.22205788979</v>
+        <v>3155.03178098626</v>
       </c>
       <c r="O43" t="n">
-        <v>1316.782668216264</v>
+        <v>3414.592391312734</v>
       </c>
       <c r="P43" t="n">
-        <v>1522.458108465876</v>
+        <v>3620.267831562346</v>
       </c>
       <c r="Q43" t="n">
-        <v>1587.986138268387</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="R43" t="n">
-        <v>1587.986138268387</v>
+        <v>3600.523143040257</v>
       </c>
       <c r="S43" t="n">
-        <v>1587.986138268387</v>
+        <v>3414.131374920167</v>
       </c>
       <c r="T43" t="n">
-        <v>1528.513731842852</v>
+        <v>3174.582635896869</v>
       </c>
       <c r="U43" t="n">
-        <v>1245.715584388976</v>
+        <v>2891.784488442993</v>
       </c>
       <c r="V43" t="n">
-        <v>971.8298393284983</v>
+        <v>2647.895796991062</v>
       </c>
       <c r="W43" t="n">
-        <v>692.7601748373727</v>
+        <v>2647.895796991062</v>
       </c>
       <c r="X43" t="n">
-        <v>454.416312697056</v>
+        <v>2647.895796991062</v>
       </c>
       <c r="Y43" t="n">
-        <v>229.6806140858207</v>
+        <v>2647.895796991062</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>773.9596689267587</v>
+        <v>1694.292981983343</v>
       </c>
       <c r="C44" t="n">
-        <v>773.9596689267587</v>
+        <v>1284.168391296613</v>
       </c>
       <c r="D44" t="n">
-        <v>369.4957390198192</v>
+        <v>879.7044613896738</v>
       </c>
       <c r="E44" t="n">
-        <v>369.4957390198192</v>
+        <v>879.7044613896738</v>
       </c>
       <c r="F44" t="n">
-        <v>369.4957390198192</v>
+        <v>879.7044613896738</v>
       </c>
       <c r="G44" t="n">
-        <v>369.4957390198192</v>
+        <v>470.976177282506</v>
       </c>
       <c r="H44" t="n">
-        <v>58.5872416475372</v>
+        <v>160.067679910224</v>
       </c>
       <c r="I44" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J44" t="n">
-        <v>58.5872416475372</v>
+        <v>327.9013886950514</v>
       </c>
       <c r="K44" t="n">
-        <v>596.7467427565767</v>
+        <v>866.0608898040909</v>
       </c>
       <c r="L44" t="n">
-        <v>1309.338142568815</v>
+        <v>1578.652289616329</v>
       </c>
       <c r="M44" t="n">
-        <v>2034.355257957088</v>
+        <v>2354.970880608083</v>
       </c>
       <c r="N44" t="n">
-        <v>2759.372373345361</v>
+        <v>3108.151897246701</v>
       </c>
       <c r="O44" t="n">
-        <v>2929.36208237686</v>
+        <v>3645.239215675292</v>
       </c>
       <c r="P44" t="n">
-        <v>2929.36208237686</v>
+        <v>3645.239215675292</v>
       </c>
       <c r="Q44" t="n">
-        <v>2929.36208237686</v>
+        <v>3645.239215675292</v>
       </c>
       <c r="R44" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S44" t="n">
-        <v>2794.081007170961</v>
+        <v>3550.514786158958</v>
       </c>
       <c r="T44" t="n">
-        <v>2571.87452311782</v>
+        <v>3328.308302105817</v>
       </c>
       <c r="U44" t="n">
-        <v>2571.87452311782</v>
+        <v>3071.247810365327</v>
       </c>
       <c r="V44" t="n">
-        <v>2222.036968454301</v>
+        <v>2879.633353731132</v>
       </c>
       <c r="W44" t="n">
-        <v>1838.276667589469</v>
+        <v>2495.8730528663</v>
       </c>
       <c r="X44" t="n">
-        <v>1437.633269758422</v>
+        <v>2095.229655035253</v>
       </c>
       <c r="Y44" t="n">
-        <v>1036.696596706512</v>
+        <v>1694.292981983343</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>737.4180835340717</v>
+        <v>752.5467591138315</v>
       </c>
       <c r="C45" t="n">
-        <v>603.4230122830173</v>
+        <v>618.5516878627773</v>
       </c>
       <c r="D45" t="n">
-        <v>486.5258545024097</v>
+        <v>501.6545300821697</v>
       </c>
       <c r="E45" t="n">
-        <v>366.0330384947378</v>
+        <v>381.1617140744977</v>
       </c>
       <c r="F45" t="n">
-        <v>257.0731586772423</v>
+        <v>272.2018342570022</v>
       </c>
       <c r="G45" t="n">
-        <v>150.083045991581</v>
+        <v>165.2117215713409</v>
       </c>
       <c r="H45" t="n">
-        <v>79.33583302729703</v>
+        <v>94.46450860705697</v>
       </c>
       <c r="I45" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J45" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K45" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="L45" t="n">
-        <v>58.5872416475372</v>
+        <v>734.8040891465854</v>
       </c>
       <c r="M45" t="n">
-        <v>783.60435703581</v>
+        <v>1246.547020966179</v>
       </c>
       <c r="N45" t="n">
-        <v>1401.119346952143</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="O45" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="P45" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="Q45" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="R45" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="S45" t="n">
-        <v>1997.086427612346</v>
+        <v>2012.215103192106</v>
       </c>
       <c r="T45" t="n">
-        <v>1837.744563799354</v>
+        <v>1852.873239379114</v>
       </c>
       <c r="U45" t="n">
-        <v>1640.393752937573</v>
+        <v>1655.522428517333</v>
       </c>
       <c r="V45" t="n">
-        <v>1426.682225930607</v>
+        <v>1441.810901510367</v>
       </c>
       <c r="W45" t="n">
-        <v>1213.449057666935</v>
+        <v>1228.577733246696</v>
       </c>
       <c r="X45" t="n">
-        <v>1037.123075805828</v>
+        <v>1052.251751385588</v>
       </c>
       <c r="Y45" t="n">
-        <v>877.7211161696583</v>
+        <v>892.8497917494182</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2489.297036057147</v>
+        <v>409.4404155549894</v>
       </c>
       <c r="C46" t="n">
-        <v>2318.203663618863</v>
+        <v>238.3470431167059</v>
       </c>
       <c r="D46" t="n">
-        <v>2158.709018941773</v>
+        <v>238.3470431167059</v>
       </c>
       <c r="E46" t="n">
-        <v>1997.798203810093</v>
+        <v>238.3470431167059</v>
       </c>
       <c r="F46" t="n">
-        <v>1833.167077920684</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="G46" t="n">
-        <v>1665.916686846227</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H46" t="n">
-        <v>1516.309231651684</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I46" t="n">
-        <v>1399.96318575601</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J46" t="n">
-        <v>1414.045735161221</v>
+        <v>87.79846663250765</v>
       </c>
       <c r="K46" t="n">
-        <v>1568.598062883459</v>
+        <v>242.3507943547456</v>
       </c>
       <c r="L46" t="n">
-        <v>1828.495163163519</v>
+        <v>502.2478946348062</v>
       </c>
       <c r="M46" t="n">
-        <v>2117.759219604013</v>
+        <v>791.5119510752995</v>
       </c>
       <c r="N46" t="n">
-        <v>2398.598001998263</v>
+        <v>1072.35073346955</v>
       </c>
       <c r="O46" t="n">
-        <v>2658.158612324737</v>
+        <v>1331.911343796024</v>
       </c>
       <c r="P46" t="n">
-        <v>2863.834052574349</v>
+        <v>1537.586784045636</v>
       </c>
       <c r="Q46" t="n">
-        <v>2929.36208237686</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="R46" t="n">
-        <v>2929.36208237686</v>
+        <v>1517.842095523547</v>
       </c>
       <c r="S46" t="n">
-        <v>2929.36208237686</v>
+        <v>1331.450327403457</v>
       </c>
       <c r="T46" t="n">
-        <v>2929.36208237686</v>
+        <v>1091.901588380159</v>
       </c>
       <c r="U46" t="n">
-        <v>2929.36208237686</v>
+        <v>1060.219682700586</v>
       </c>
       <c r="V46" t="n">
-        <v>2929.36208237686</v>
+        <v>1060.219682700586</v>
       </c>
       <c r="W46" t="n">
-        <v>2929.36208237686</v>
+        <v>1060.219682700586</v>
       </c>
       <c r="X46" t="n">
-        <v>2901.732441062426</v>
+        <v>821.8758205602691</v>
       </c>
       <c r="Y46" t="n">
-        <v>2676.996742451191</v>
+        <v>597.1401219490338</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K2" t="n">
-        <v>617.3427351963666</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L2" t="n">
-        <v>95.48539806284482</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M2" t="n">
-        <v>825.6307450512605</v>
+        <v>208.6432198571623</v>
       </c>
       <c r="N2" t="n">
-        <v>825.2528113508343</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O2" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P2" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q2" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R2" t="n">
         <v>87.31214281472352</v>
@@ -8055,25 +8057,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L3" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
-        <v>789.9048043326325</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N3" t="n">
-        <v>123.0100567187793</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P3" t="n">
-        <v>621.6393243851574</v>
+        <v>334.2421074116683</v>
       </c>
       <c r="Q3" t="n">
         <v>56.69261850483872</v>
@@ -8216,16 +8218,16 @@
         <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L5" t="n">
-        <v>95.48539806284482</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M5" t="n">
-        <v>825.6307450512605</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N5" t="n">
-        <v>818.9574418041336</v>
+        <v>211.5797460404098</v>
       </c>
       <c r="O5" t="n">
         <v>743.321953824879</v>
@@ -8237,7 +8239,7 @@
         <v>90.03380439915205</v>
       </c>
       <c r="R5" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,31 +8294,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
-        <v>516.2361426485535</v>
+        <v>196.0142788843133</v>
       </c>
       <c r="L6" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M6" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
-        <v>785.533913987965</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P6" t="n">
-        <v>545.4332109122129</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q6" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8450,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L8" t="n">
-        <v>815.2746908024792</v>
+        <v>392.3436386874106</v>
       </c>
       <c r="M8" t="n">
-        <v>825.6307450512605</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N8" t="n">
-        <v>825.2528113508343</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O8" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P8" t="n">
-        <v>158.8194175469794</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q8" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,19 +8534,19 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K9" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L9" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
-        <v>57.56428373841742</v>
+        <v>531.1743980747689</v>
       </c>
       <c r="N9" t="n">
-        <v>785.533913987965</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O9" t="n">
-        <v>264.3955722097374</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P9" t="n">
         <v>54.25963500280375</v>
@@ -8687,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
-        <v>562.2419071645454</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L11" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M11" t="n">
-        <v>825.6307450512605</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N11" t="n">
-        <v>92.91229075661933</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O11" t="n">
-        <v>743.321953824879</v>
+        <v>676.6685272602841</v>
       </c>
       <c r="P11" t="n">
         <v>93.64936328088416</v>
       </c>
       <c r="Q11" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R11" t="n">
         <v>87.31214281472352</v>
@@ -8766,19 +8768,19 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K12" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L12" t="n">
-        <v>403.6584902681119</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M12" t="n">
-        <v>57.56428373841742</v>
+        <v>531.1743980747689</v>
       </c>
       <c r="N12" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O12" t="n">
         <v>768.8192472281761</v>
@@ -8787,7 +8789,7 @@
         <v>54.25963500280375</v>
       </c>
       <c r="Q12" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R12" t="n">
         <v>59.00019910540541</v>
@@ -8930,25 +8932,25 @@
         <v>632.7318453389136</v>
       </c>
       <c r="L14" t="n">
-        <v>95.48539806284482</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M14" t="n">
-        <v>825.6307450512605</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N14" t="n">
-        <v>275.3619861384373</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O14" t="n">
-        <v>743.321953824879</v>
+        <v>311.297161113964</v>
       </c>
       <c r="P14" t="n">
-        <v>628.1510783507341</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q14" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R14" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,22 +9008,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K15" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L15" t="n">
-        <v>384.4175102257753</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M15" t="n">
-        <v>57.56428373841742</v>
+        <v>531.1743980747689</v>
       </c>
       <c r="N15" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O15" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P15" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q15" t="n">
         <v>56.69261850483872</v>
@@ -9176,7 +9178,7 @@
         <v>853.701196452193</v>
       </c>
       <c r="O17" t="n">
-        <v>743.321953824879</v>
+        <v>743.3219538248791</v>
       </c>
       <c r="P17" t="n">
         <v>628.1510783507341</v>
@@ -9185,7 +9187,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R17" t="n">
-        <v>128.2784515920618</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9249,13 +9251,13 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M18" t="n">
-        <v>501.3162977084759</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N18" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O18" t="n">
-        <v>768.8192472281761</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P18" t="n">
         <v>54.25963500280375</v>
@@ -9264,7 +9266,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R18" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -10197,13 +10199,13 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M30" t="n">
-        <v>909.0562844399999</v>
+        <v>531.1743980747688</v>
       </c>
       <c r="N30" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O30" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P30" t="n">
         <v>54.25963500280375</v>
@@ -10428,22 +10430,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K33" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M33" t="n">
         <v>909.0562844399999</v>
       </c>
       <c r="N33" t="n">
-        <v>53.19339339374999</v>
+        <v>241.07214733527</v>
       </c>
       <c r="O33" t="n">
-        <v>605.6544519663084</v>
+        <v>57.751479</v>
       </c>
       <c r="P33" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q33" t="n">
         <v>56.69261850483872</v>
@@ -10595,7 +10597,7 @@
         <v>877.4504173780091</v>
       </c>
       <c r="N35" t="n">
-        <v>853.7011964521931</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O35" t="n">
         <v>743.321953824879</v>
@@ -10671,19 +10673,19 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M36" t="n">
-        <v>909.0562844399999</v>
+        <v>888.8639191474061</v>
       </c>
       <c r="N36" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O36" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P36" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q36" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
         <v>59.00019910540541</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K38" t="n">
         <v>632.7318453389136</v>
@@ -10905,22 +10907,22 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L39" t="n">
-        <v>491.4496229341746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M39" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N39" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O39" t="n">
-        <v>768.8192472281761</v>
+        <v>390.9373608629454</v>
       </c>
       <c r="P39" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q39" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R39" t="n">
         <v>59.00019910540541</v>
@@ -11060,28 +11062,28 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K41" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L41" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M41" t="n">
-        <v>825.6307450512605</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N41" t="n">
-        <v>825.2528113508343</v>
+        <v>468.3327475229898</v>
       </c>
       <c r="O41" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P41" t="n">
-        <v>158.8194175469794</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q41" t="n">
         <v>90.03380439915205</v>
       </c>
       <c r="R41" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11142,25 +11144,25 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L42" t="n">
-        <v>275.3579389899812</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M42" t="n">
-        <v>789.9048043326325</v>
+        <v>531.1743980747689</v>
       </c>
       <c r="N42" t="n">
-        <v>785.533913987965</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O42" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P42" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q42" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R42" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
         <v>632.7318453389136</v>
@@ -11303,13 +11305,13 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M44" t="n">
-        <v>825.6307450512605</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N44" t="n">
-        <v>825.2528113508343</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O44" t="n">
-        <v>264.8965524252774</v>
+        <v>635.7022184829458</v>
       </c>
       <c r="P44" t="n">
         <v>93.64936328088416</v>
@@ -11318,7 +11320,7 @@
         <v>90.03380439915205</v>
       </c>
       <c r="R44" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11379,16 +11381,16 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L45" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M45" t="n">
-        <v>789.9048043326325</v>
+        <v>574.4763360814417</v>
       </c>
       <c r="N45" t="n">
-        <v>676.9459084607529</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O45" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P45" t="n">
         <v>54.25963500280375</v>
@@ -22544,13 +22546,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>249.9299777315067</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>138.4524459577281</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -22595,22 +22597,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>396.9273063213908</v>
@@ -22702,28 +22704,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,25 +22752,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>1.56200429191324</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>208.6070786176239</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -22781,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -22793,16 +22795,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22832,7 +22834,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>98.30393796240722</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -22847,7 +22849,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>173.0416843670104</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22939,7 +22941,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
         <v>169.3824387139007</v>
@@ -22987,10 +22989,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>156.7553487017544</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -23005,7 +23007,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>55.3526305130045</v>
       </c>
       <c r="Y7" t="n">
         <v>222.4883416251229</v>
@@ -23021,25 +23023,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>267.1395291780698</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23069,19 +23071,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>369.6160567042135</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -23176,7 +23178,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
         <v>169.3824387139007</v>
@@ -23227,13 +23229,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>41.98257939627794</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -23242,10 +23244,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>55.3526305130045</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -23255,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>102.4774065108168</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>400.41929060787</v>
@@ -23267,13 +23269,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>307.7994123985592</v>
+        <v>295.4666500174952</v>
       </c>
       <c r="I11" t="n">
         <v>85.48824505609757</v>
@@ -23306,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23413,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.067778445224121</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23464,22 +23466,22 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>235.9604235189134</v>
+        <v>208.6070786176239</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23495,13 +23497,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23513,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23549,19 +23551,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>193.6458480696849</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>346.3391791168841</v>
+        <v>117.9231778709838</v>
       </c>
       <c r="W14" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23662,16 +23664,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>134.9699070214184</v>
       </c>
       <c r="G16" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23713,10 +23715,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>55.35263051300461</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
         <v>222.4883416251229</v>
@@ -23744,10 +23746,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>49.19646844041381</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>85.48824505609757</v>
@@ -23780,13 +23782,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23887,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
         <v>159.3017069803637</v>
@@ -23902,10 +23904,10 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.0869626152796</v>
       </c>
       <c r="H19" t="n">
-        <v>102.4386798523263</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
         <v>115.1825854367171</v>
@@ -23938,19 +23940,19 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23981,13 +23983,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>223.0676163851325</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>222.4997066824603</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
         <v>169.3824387139007</v>
@@ -24133,7 +24135,7 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>24.13094430738749</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24142,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,19 +24183,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>6.155124069812928</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -24212,13 +24214,13 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>356.9958808389731</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>356.995880838973</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -24361,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>25.92561973652101</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>93.42449318090684</v>
       </c>
       <c r="I25" t="n">
         <v>115.1825854367171</v>
@@ -24418,19 +24420,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24458,7 +24460,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24494,10 +24496,10 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U26" t="n">
-        <v>134.6847134965117</v>
+        <v>222.4997066824603</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24601,25 +24603,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>76.57499550861168</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>55.35263051300575</v>
       </c>
       <c r="Y28" t="n">
         <v>222.4883416251229</v>
@@ -24689,10 +24691,10 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
         <v>49.19646844041381</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>307.7994123985592</v>
@@ -24889,7 +24891,7 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>279.9701659793371</v>
@@ -24901,10 +24903,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>208.6070786176241</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>209.7999067317755</v>
       </c>
     </row>
     <row r="32">
@@ -25078,10 +25080,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>4.874559219806002</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
         <v>162.9848146305146</v>
@@ -25093,7 +25095,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
         <v>184.5278504388888</v>
@@ -25129,19 +25131,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>263.3609689021362</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25163,7 +25165,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>49.19646844041381</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25172,7 +25174,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I35" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25202,10 +25204,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>0.756449042671278</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -25312,22 +25314,22 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>80.99886530420849</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I37" t="n">
         <v>115.1825854367171</v>
@@ -25357,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>55.35263051300471</v>
       </c>
       <c r="S37" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25375,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>222.4883416251229</v>
@@ -25403,13 +25405,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>49.19646844041381</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25439,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>88.57144222861982</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25564,10 +25566,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
-        <v>148.1113806425979</v>
+        <v>82.68617307340614</v>
       </c>
       <c r="I40" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>8.893130557884461</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25612,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -25625,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>380.9548950735924</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>39.66653734822853</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25685,7 +25687,7 @@
         <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25789,10 +25791,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>162.9848146305146</v>
@@ -25831,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>178.2755692717851</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>29.69708307246094</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -25862,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>146.0094093658887</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25877,13 +25879,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25919,10 +25921,10 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>156.6408670490311</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26026,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9701659793371</v>
+        <v>248.6050793565591</v>
       </c>
       <c r="V46" t="n">
         <v>271.1468876098733</v>
@@ -26086,7 +26088,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>208.6070786176241</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>557197.5610360525</v>
+        <v>630279.1261531395</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>557197.5610360524</v>
+        <v>630279.1261531394</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>557197.5610360524</v>
+        <v>630279.1261531394</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>557197.5610360524</v>
+        <v>630279.1261531394</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>557197.5610360525</v>
+        <v>630279.1261531394</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>724611.2936980635</v>
+        <v>724611.2936980636</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>724611.2936980636</v>
+        <v>724611.2936980635</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>724611.2936980635</v>
+        <v>724611.2936980636</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>724611.2936980635</v>
+        <v>724611.2936980634</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>724611.2936980637</v>
+        <v>724611.2936980636</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>557197.5610360523</v>
+        <v>630279.1261531393</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>557197.5610360521</v>
+        <v>630279.1261531395</v>
       </c>
     </row>
   </sheetData>
@@ -26311,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>245011.2688821827</v>
+        <v>277141.0629351232</v>
       </c>
       <c r="C2" t="n">
-        <v>245011.2688821827</v>
+        <v>277141.0629351232</v>
       </c>
       <c r="D2" t="n">
-        <v>245011.2688821826</v>
+        <v>277141.0629351232</v>
       </c>
       <c r="E2" t="n">
-        <v>245011.2688821827</v>
+        <v>277141.0629351232</v>
       </c>
       <c r="F2" t="n">
-        <v>245011.2688821826</v>
+        <v>277141.062935123</v>
       </c>
       <c r="G2" t="n">
         <v>318613.5342886033</v>
       </c>
       <c r="H2" t="n">
+        <v>318613.5342886033</v>
+      </c>
+      <c r="I2" t="n">
         <v>318613.5342886032</v>
-      </c>
-      <c r="I2" t="n">
-        <v>318613.5342886033</v>
       </c>
       <c r="J2" t="n">
         <v>318613.5342886032</v>
       </c>
       <c r="K2" t="n">
-        <v>318613.5342886032</v>
+        <v>318613.5342886031</v>
       </c>
       <c r="L2" t="n">
         <v>318613.5342886032</v>
@@ -26347,13 +26349,13 @@
         <v>318613.5342886032</v>
       </c>
       <c r="N2" t="n">
-        <v>318613.5342886032</v>
+        <v>318613.5342886033</v>
       </c>
       <c r="O2" t="n">
-        <v>245011.2688821826</v>
+        <v>277141.062935123</v>
       </c>
       <c r="P2" t="n">
-        <v>245011.2688821827</v>
+        <v>277141.0629351231</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>245424.1522830951</v>
+        <v>308798.7416120438</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>118735.1844321139</v>
+        <v>66903.39635363265</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>191612.5031703528</v>
+        <v>241091.5930877367</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>23160.83861544975</v>
+        <v>26230.44077798685</v>
       </c>
       <c r="C4" t="n">
-        <v>23160.83861544975</v>
+        <v>26230.44077798685</v>
       </c>
       <c r="D4" t="n">
-        <v>23160.83861544975</v>
+        <v>26230.44077798685</v>
       </c>
       <c r="E4" t="n">
-        <v>23160.83861544975</v>
+        <v>26230.44077798685</v>
       </c>
       <c r="F4" t="n">
-        <v>23160.83861544975</v>
+        <v>26230.44077798685</v>
       </c>
       <c r="G4" t="n">
         <v>30192.61954398331</v>
@@ -26442,7 +26444,7 @@
         <v>30192.61954398331</v>
       </c>
       <c r="K4" t="n">
-        <v>30192.61954398331</v>
+        <v>30192.61954398332</v>
       </c>
       <c r="L4" t="n">
         <v>30192.61954398331</v>
@@ -26451,13 +26453,13 @@
         <v>30192.61954398331</v>
       </c>
       <c r="N4" t="n">
-        <v>30192.61954398331</v>
+        <v>30192.61954398332</v>
       </c>
       <c r="O4" t="n">
-        <v>23160.83861544975</v>
+        <v>26230.44077798685</v>
       </c>
       <c r="P4" t="n">
-        <v>23160.83861544975</v>
+        <v>26230.44077798685</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>78153.90365212827</v>
+        <v>89651.69709274583</v>
       </c>
       <c r="C5" t="n">
-        <v>78153.90365212827</v>
+        <v>89651.69709274583</v>
       </c>
       <c r="D5" t="n">
-        <v>78153.90365212827</v>
+        <v>89651.69709274583</v>
       </c>
       <c r="E5" t="n">
-        <v>44526.30365212827</v>
+        <v>56024.09709274583</v>
       </c>
       <c r="F5" t="n">
-        <v>44526.30365212827</v>
+        <v>56024.09709274583</v>
       </c>
       <c r="G5" t="n">
         <v>70865.21024487332</v>
@@ -26506,10 +26508,10 @@
         <v>70865.21024487332</v>
       </c>
       <c r="O5" t="n">
-        <v>44526.30365212827</v>
+        <v>56024.09709274583</v>
       </c>
       <c r="P5" t="n">
-        <v>44526.30365212827</v>
+        <v>56024.09709274583</v>
       </c>
     </row>
     <row r="6">
@@ -26519,34 +26521,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-101727.6256684904</v>
+        <v>-147539.8165476532</v>
       </c>
       <c r="C6" t="n">
-        <v>143696.5266146047</v>
+        <v>161258.9250643905</v>
       </c>
       <c r="D6" t="n">
-        <v>143696.5266146046</v>
+        <v>161258.9250643906</v>
       </c>
       <c r="E6" t="n">
-        <v>177324.1266146046</v>
+        <v>194886.5250643905</v>
       </c>
       <c r="F6" t="n">
-        <v>177324.1266146046</v>
+        <v>194886.5250643904</v>
       </c>
       <c r="G6" t="n">
-        <v>98820.52006763271</v>
+        <v>150652.3081461141</v>
       </c>
       <c r="H6" t="n">
+        <v>217555.7044997467</v>
+      </c>
+      <c r="I6" t="n">
         <v>217555.7044997466</v>
       </c>
-      <c r="I6" t="n">
-        <v>217555.7044997467</v>
-      </c>
       <c r="J6" t="n">
-        <v>25943.20132939379</v>
+        <v>-23535.88858799006</v>
       </c>
       <c r="K6" t="n">
-        <v>217555.7044997466</v>
+        <v>217555.7044997465</v>
       </c>
       <c r="L6" t="n">
         <v>217555.7044997466</v>
@@ -26555,13 +26557,13 @@
         <v>217555.7044997466</v>
       </c>
       <c r="N6" t="n">
-        <v>217555.7044997466</v>
+        <v>217555.7044997467</v>
       </c>
       <c r="O6" t="n">
-        <v>177324.1266146046</v>
+        <v>194886.5250643904</v>
       </c>
       <c r="P6" t="n">
-        <v>177324.1266146047</v>
+        <v>194886.5250643904</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="C4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="D4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="E4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="F4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="G4" t="n">
         <v>1165.546221132785</v>
@@ -26826,10 +26828,10 @@
         <v>1165.546221132785</v>
       </c>
       <c r="O4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="P4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412143</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27024,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>433.2057005385699</v>
+        <v>244.0972557915707</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27270,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>433.2057005385699</v>
+        <v>244.0972557915707</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>528.2063455231495</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M2" t="n">
-        <v>732.340520594215</v>
+        <v>115.3529954001169</v>
       </c>
       <c r="N2" t="n">
-        <v>732.340520594215</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O2" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>732.340520594215</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N3" t="n">
-        <v>69.8166633250293</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P3" t="n">
-        <v>567.3796893823536</v>
+        <v>279.9824724088646</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34936,16 +34938,16 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M5" t="n">
-        <v>732.340520594215</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N5" t="n">
-        <v>726.0451510475143</v>
+        <v>118.6674552837905</v>
       </c>
       <c r="O5" t="n">
         <v>650.1321781990958</v>
@@ -34957,7 +34959,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
-        <v>460.4103598639381</v>
+        <v>140.1884960996979</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>732.340520594215</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P6" t="n">
-        <v>491.1735759094091</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>719.7892927396343</v>
+        <v>296.8582406245658</v>
       </c>
       <c r="M8" t="n">
-        <v>732.340520594215</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N8" t="n">
-        <v>732.340520594215</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O8" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P8" t="n">
-        <v>65.17005426609525</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,19 +35254,19 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>473.6101143363514</v>
       </c>
       <c r="N9" t="n">
-        <v>732.340520594215</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O9" t="n">
-        <v>206.6440932097374</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35407,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K11" t="n">
-        <v>473.1055174913283</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L11" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M11" t="n">
-        <v>732.340520594215</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O11" t="n">
-        <v>650.1321781990958</v>
+        <v>583.478751634501</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,19 +35488,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>347.5439664572629</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>473.6101143363514</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O12" t="n">
         <v>711.0677682281761</v>
@@ -35507,7 +35509,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35650,25 +35652,25 @@
         <v>543.5954556656965</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M14" t="n">
-        <v>732.340520594215</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N14" t="n">
-        <v>182.4496953818179</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O14" t="n">
-        <v>650.1321781990958</v>
+        <v>218.1073854881809</v>
       </c>
       <c r="P14" t="n">
-        <v>534.50171506985</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,22 +35728,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>328.3029864149263</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>473.6101143363514</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O15" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P15" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35896,7 +35898,7 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O17" t="n">
-        <v>650.1321781990958</v>
+        <v>650.132178199096</v>
       </c>
       <c r="P17" t="n">
         <v>534.50171506985</v>
@@ -35905,7 +35907,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R17" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35969,13 +35971,13 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>443.7520139700585</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N18" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O18" t="n">
-        <v>711.0677682281761</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -35984,7 +35986,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36917,13 +36919,13 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>851.4920007015825</v>
+        <v>473.6101143363514</v>
       </c>
       <c r="N30" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O30" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37148,22 +37150,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>851.4920007015825</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>187.87875394152</v>
       </c>
       <c r="O33" t="n">
-        <v>547.9029729663084</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37315,7 +37317,7 @@
         <v>784.1601929209636</v>
       </c>
       <c r="N35" t="n">
-        <v>760.7889056955738</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O35" t="n">
         <v>650.1321781990958</v>
@@ -37391,19 +37393,19 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>851.4920007015825</v>
+        <v>831.2996354089887</v>
       </c>
       <c r="N36" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O36" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K38" t="n">
         <v>543.5954556656965</v>
@@ -37625,22 +37627,22 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>435.3350991233255</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O39" t="n">
-        <v>711.0677682281761</v>
+        <v>333.1858818629454</v>
       </c>
       <c r="P39" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37780,28 +37782,28 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L41" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M41" t="n">
-        <v>732.340520594215</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N41" t="n">
-        <v>732.340520594215</v>
+        <v>375.4204567663705</v>
       </c>
       <c r="O41" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P41" t="n">
-        <v>65.17005426609525</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,25 +37864,25 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>219.2434151791322</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>732.340520594215</v>
+        <v>473.6101143363514</v>
       </c>
       <c r="N42" t="n">
-        <v>732.340520594215</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38014,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K44" t="n">
         <v>543.5954556656965</v>
@@ -38023,13 +38025,13 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M44" t="n">
-        <v>732.340520594215</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N44" t="n">
-        <v>732.340520594215</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O44" t="n">
-        <v>171.7067767994943</v>
+        <v>542.5124428571627</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -38038,7 +38040,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,16 +38101,16 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M45" t="n">
-        <v>732.340520594215</v>
+        <v>516.9120523430242</v>
       </c>
       <c r="N45" t="n">
-        <v>623.7525150670029</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O45" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_2_22.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_2_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1164873.799231882</v>
+        <v>1162365.447505969</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5562152.400446148</v>
+        <v>5562152.400446146</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7830893.481509815</v>
+        <v>7830893.481509816</v>
       </c>
     </row>
     <row r="11">
@@ -664,19 +664,19 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
-        <v>261.966844650142</v>
+        <v>267.2080258836402</v>
       </c>
       <c r="E2" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>85.48824505609757</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>27.35334490128957</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="5">
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C5" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
-        <v>416.8201079258493</v>
+        <v>75.09750875206504</v>
       </c>
       <c r="G5" t="n">
         <v>404.6410012660961</v>
@@ -952,7 +952,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>346.3391791168841</v>
@@ -961,10 +961,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>223.5952794857266</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>237.1532516330649</v>
@@ -1119,10 +1119,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>180.6077930059089</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="8">
@@ -1138,10 +1138,10 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
-        <v>133.2797614298002</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
         <v>416.8201079258493</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,16 +1186,16 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>262.5489064416332</v>
       </c>
       <c r="X8" t="n">
         <v>396.636963852737</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>239.6441761814974</v>
       </c>
       <c r="W10" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>180.6077930059089</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>406.1189678678446</v>
+        <v>10.45893509147294</v>
       </c>
       <c r="C11" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
         <v>410.1968133282722</v>
@@ -1387,7 +1387,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
-        <v>12.33276238106401</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>379.9226978561831</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,22 +1581,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>27.35334490128957</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="14">
@@ -1609,16 +1609,16 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>397.6220067827863</v>
       </c>
       <c r="E14" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>404.6410012660961</v>
@@ -1660,16 +1660,16 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>228.4160012459003</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
         <v>396.636963852737</v>
@@ -1776,16 +1776,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>28.01490760909629</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>184.5278504388888</v>
@@ -1827,13 +1827,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>82.85798684944118</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.4066896505621</v>
+        <v>165.9184445944652</v>
       </c>
       <c r="V17" t="n">
         <v>346.3391791168841</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.490924548432452</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,16 +2052,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
         <v>276.2789678462144</v>
@@ -2070,7 +2070,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="20">
@@ -2134,10 +2134,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>31.99018014062471</v>
       </c>
       <c r="U20" t="n">
-        <v>31.99018014062471</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>346.3391791168841</v>
@@ -2247,19 +2247,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>135.1707626729762</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
         <v>279.9701659793371</v>
@@ -2301,13 +2301,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="23">
@@ -2326,7 +2326,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E23" t="n">
-        <v>53.20093248929918</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
         <v>416.8201079258493</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V23" t="n">
         <v>346.3391791168841</v>
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>54.68688746169106</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2529,22 +2529,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="26">
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>165.9184445944652</v>
       </c>
       <c r="U26" t="n">
-        <v>31.99018014062471</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>346.3391791168841</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>237.1532516330649</v>
@@ -2778,10 +2778,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>180.6077930059077</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="29">
@@ -2806,10 +2806,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>355.4445328256823</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>133.9282644538401</v>
+        <v>31.42227043795236</v>
       </c>
       <c r="T29" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U29" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>346.3391791168841</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3006,19 +3006,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>12.68843489334748</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="32">
@@ -3043,13 +3043,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>355.4445328256823</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
-        <v>219.9844192126098</v>
+        <v>85.29970571609803</v>
       </c>
       <c r="U32" t="n">
         <v>254.489886823085</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>153.0251390105131</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3240,10 +3240,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
         <v>271.1468876098733</v>
@@ -3255,7 +3255,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="35">
@@ -3283,7 +3283,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I35" t="n">
         <v>85.48824505609757</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T35" t="n">
-        <v>219.2279701699385</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>254.489886823085</v>
+        <v>31.99018014062471</v>
       </c>
       <c r="V35" t="n">
         <v>346.3391791168841</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>29.06736062834963</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>237.1532516330649</v>
@@ -3492,7 +3492,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="38">
@@ -3520,7 +3520,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H38" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>85.48824505609757</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
-        <v>165.9184445944652</v>
+        <v>119.8051733265733</v>
       </c>
       <c r="V38" t="n">
         <v>346.3391791168841</v>
@@ -3678,10 +3678,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>65.42520756919177</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>237.1532516330649</v>
@@ -3726,10 +3726,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="41">
@@ -3739,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>25.16407279425213</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
         <v>410.1968133282722</v>
@@ -3754,13 +3754,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>404.6410012660961</v>
+        <v>228.9653877023341</v>
       </c>
       <c r="H41" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3799,7 +3799,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>379.9226978561831</v>
@@ -3900,13 +3900,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>237.1532516330649</v>
@@ -3957,16 +3957,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>241.4498045374123</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="44">
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
         <v>406.0233447798626</v>
@@ -3985,19 +3985,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
-        <v>189.698312067853</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>396.9273063213908</v>
+        <v>150.9878551242371</v>
       </c>
     </row>
     <row r="45">
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
-        <v>31.36508662277793</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2389.812653999902</v>
+        <v>1261.129779495428</v>
       </c>
       <c r="C2" t="n">
-        <v>1979.688063313172</v>
+        <v>851.0051888086983</v>
       </c>
       <c r="D2" t="n">
-        <v>1715.075088919089</v>
+        <v>581.0980919565365</v>
       </c>
       <c r="E2" t="n">
-        <v>1300.734873435986</v>
+        <v>581.0980919565365</v>
       </c>
       <c r="F2" t="n">
-        <v>879.7044613896738</v>
+        <v>160.067679910224</v>
       </c>
       <c r="G2" t="n">
-        <v>470.976177282506</v>
+        <v>160.067679910224</v>
       </c>
       <c r="H2" t="n">
         <v>160.067679910224</v>
@@ -4339,43 +4339,43 @@
         <v>1324.466818148575</v>
       </c>
       <c r="M2" t="n">
-        <v>1438.66628359469</v>
+        <v>2041.74049432223</v>
       </c>
       <c r="N2" t="n">
-        <v>2191.847300233308</v>
+        <v>2794.921510960849</v>
       </c>
       <c r="O2" t="n">
-        <v>2835.478156650413</v>
+        <v>2794.921510960849</v>
       </c>
       <c r="P2" t="n">
-        <v>3364.634854569565</v>
+        <v>3324.07820888</v>
       </c>
       <c r="Q2" t="n">
-        <v>3685.795861364857</v>
+        <v>3645.239215675292</v>
       </c>
       <c r="R2" t="n">
         <v>3685.795861364857</v>
       </c>
       <c r="S2" t="n">
-        <v>3550.514786158958</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="T2" t="n">
-        <v>3550.514786158958</v>
+        <v>3463.589377311716</v>
       </c>
       <c r="U2" t="n">
-        <v>3550.514786158958</v>
+        <v>3206.528885571226</v>
       </c>
       <c r="V2" t="n">
-        <v>3200.677231495439</v>
+        <v>2856.691330907707</v>
       </c>
       <c r="W2" t="n">
-        <v>3200.677231495439</v>
+        <v>2472.931030042875</v>
       </c>
       <c r="X2" t="n">
-        <v>2800.033833664391</v>
+        <v>2072.287632211828</v>
       </c>
       <c r="Y2" t="n">
-        <v>2800.033833664391</v>
+        <v>1671.350959159918</v>
       </c>
     </row>
     <row r="3">
@@ -4418,19 +4418,19 @@
         <v>266.5287747899304</v>
       </c>
       <c r="M3" t="n">
-        <v>1109.505855484497</v>
+        <v>266.5287747899304</v>
       </c>
       <c r="N3" t="n">
-        <v>1109.505855484497</v>
+        <v>1066.40355784792</v>
       </c>
       <c r="O3" t="n">
-        <v>1813.462946030391</v>
+        <v>1770.360648393814</v>
       </c>
       <c r="P3" t="n">
-        <v>2090.645593715167</v>
+        <v>1770.360648393814</v>
       </c>
       <c r="Q3" t="n">
-        <v>2090.645593715167</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="R3" t="n">
         <v>2120.205113077797</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1163.049767528434</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="C4" t="n">
-        <v>991.9563950901502</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="D4" t="n">
-        <v>832.4617504130601</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="E4" t="n">
-        <v>671.5509352813797</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="F4" t="n">
-        <v>506.9198093919709</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="G4" t="n">
-        <v>339.6694183175143</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H4" t="n">
-        <v>190.061963122971</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I4" t="n">
         <v>73.71591722729714</v>
@@ -4518,22 +4518,22 @@
         <v>1603.114813848147</v>
       </c>
       <c r="T4" t="n">
-        <v>1603.114813848147</v>
+        <v>1363.566074824849</v>
       </c>
       <c r="U4" t="n">
-        <v>1603.114813848147</v>
+        <v>1080.767927370974</v>
       </c>
       <c r="V4" t="n">
-        <v>1603.114813848147</v>
+        <v>806.8821823104956</v>
       </c>
       <c r="W4" t="n">
-        <v>1603.114813848147</v>
+        <v>527.81251781937</v>
       </c>
       <c r="X4" t="n">
-        <v>1575.485172533713</v>
+        <v>289.4686556790534</v>
       </c>
       <c r="Y4" t="n">
-        <v>1350.749473922478</v>
+        <v>73.71591722729714</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1710.859464122716</v>
+        <v>2184.489266912977</v>
       </c>
       <c r="C5" t="n">
-        <v>1300.734873435986</v>
+        <v>1774.364676226247</v>
       </c>
       <c r="D5" t="n">
-        <v>1300.734873435986</v>
+        <v>1369.900746319307</v>
       </c>
       <c r="E5" t="n">
-        <v>1300.734873435986</v>
+        <v>955.5605308362042</v>
       </c>
       <c r="F5" t="n">
         <v>879.7044613896738</v>
@@ -4570,22 +4570,22 @@
         <v>327.9013886950514</v>
       </c>
       <c r="K5" t="n">
-        <v>866.0608898040909</v>
+        <v>327.9013886950514</v>
       </c>
       <c r="L5" t="n">
-        <v>1578.652289616329</v>
+        <v>1040.492788507289</v>
       </c>
       <c r="M5" t="n">
-        <v>2354.970880608083</v>
+        <v>1816.811379499043</v>
       </c>
       <c r="N5" t="n">
-        <v>2472.451661339036</v>
+        <v>2569.992396137661</v>
       </c>
       <c r="O5" t="n">
-        <v>3116.082517756141</v>
+        <v>2794.921510960849</v>
       </c>
       <c r="P5" t="n">
-        <v>3645.239215675292</v>
+        <v>3324.07820888</v>
       </c>
       <c r="Q5" t="n">
         <v>3645.239215675292</v>
@@ -4600,19 +4600,19 @@
         <v>3328.308302105817</v>
       </c>
       <c r="U5" t="n">
-        <v>3071.247810365327</v>
+        <v>3328.308302105817</v>
       </c>
       <c r="V5" t="n">
-        <v>2721.410255701808</v>
+        <v>2978.470747442298</v>
       </c>
       <c r="W5" t="n">
-        <v>2337.649954836976</v>
+        <v>2594.710446577466</v>
       </c>
       <c r="X5" t="n">
-        <v>2111.796137174626</v>
+        <v>2594.710446577466</v>
       </c>
       <c r="Y5" t="n">
-        <v>1710.859464122716</v>
+        <v>2594.710446577466</v>
       </c>
     </row>
     <row r="6">
@@ -4646,28 +4646,28 @@
         <v>73.71591722729714</v>
       </c>
       <c r="J6" t="n">
-        <v>266.5287747899304</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K6" t="n">
-        <v>405.3153859286313</v>
+        <v>529.5221734925958</v>
       </c>
       <c r="L6" t="n">
-        <v>1066.40355784792</v>
+        <v>529.5221734925958</v>
       </c>
       <c r="M6" t="n">
-        <v>1066.40355784792</v>
+        <v>529.5221734925958</v>
       </c>
       <c r="N6" t="n">
-        <v>1066.40355784792</v>
+        <v>1036.84403848529</v>
       </c>
       <c r="O6" t="n">
-        <v>1770.360648393814</v>
+        <v>1740.801129031184</v>
       </c>
       <c r="P6" t="n">
-        <v>1770.360648393814</v>
+        <v>1740.801129031184</v>
       </c>
       <c r="Q6" t="n">
-        <v>2120.205113077797</v>
+        <v>2090.645593715167</v>
       </c>
       <c r="R6" t="n">
         <v>2120.205113077797</v>
@@ -4749,25 +4749,25 @@
         <v>1603.114813848147</v>
       </c>
       <c r="R7" t="n">
-        <v>1517.842095523547</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="S7" t="n">
-        <v>1331.450327403457</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="T7" t="n">
-        <v>1091.901588380159</v>
+        <v>1363.566074824849</v>
       </c>
       <c r="U7" t="n">
-        <v>809.1034409262836</v>
+        <v>1080.767927370974</v>
       </c>
       <c r="V7" t="n">
-        <v>535.2176958658056</v>
+        <v>806.8821823104956</v>
       </c>
       <c r="W7" t="n">
-        <v>256.1480313746799</v>
+        <v>527.81251781937</v>
       </c>
       <c r="X7" t="n">
-        <v>73.71591722729714</v>
+        <v>289.4686556790534</v>
       </c>
       <c r="Y7" t="n">
         <v>73.71591722729714</v>
@@ -4780,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1125.848704289529</v>
+        <v>1723.675065350382</v>
       </c>
       <c r="C8" t="n">
-        <v>715.7241136027993</v>
+        <v>1313.550474663652</v>
       </c>
       <c r="D8" t="n">
-        <v>581.0980919565365</v>
+        <v>909.0865447567129</v>
       </c>
       <c r="E8" t="n">
-        <v>581.0980919565365</v>
+        <v>494.7463292736096</v>
       </c>
       <c r="F8" t="n">
-        <v>160.067679910224</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="G8" t="n">
-        <v>160.067679910224</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H8" t="n">
-        <v>160.067679910224</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I8" t="n">
         <v>73.71591722729714</v>
       </c>
       <c r="J8" t="n">
-        <v>327.9013886950514</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K8" t="n">
-        <v>327.9013886950514</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="L8" t="n">
-        <v>621.7910469133716</v>
+        <v>786.3073170395352</v>
       </c>
       <c r="M8" t="n">
-        <v>1398.109637905126</v>
+        <v>1562.625908031289</v>
       </c>
       <c r="N8" t="n">
-        <v>2151.290654543744</v>
+        <v>2315.806924669907</v>
       </c>
       <c r="O8" t="n">
-        <v>2794.921510960849</v>
+        <v>2959.437781087012</v>
       </c>
       <c r="P8" t="n">
-        <v>3324.07820888</v>
+        <v>3488.594479006164</v>
       </c>
       <c r="Q8" t="n">
-        <v>3645.239215675292</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="R8" t="n">
         <v>3685.795861364857</v>
@@ -4834,22 +4834,22 @@
         <v>3550.514786158958</v>
       </c>
       <c r="T8" t="n">
-        <v>3328.308302105817</v>
+        <v>3550.514786158958</v>
       </c>
       <c r="U8" t="n">
-        <v>3071.247810365327</v>
+        <v>3550.514786158958</v>
       </c>
       <c r="V8" t="n">
-        <v>2721.410255701808</v>
+        <v>3200.677231495439</v>
       </c>
       <c r="W8" t="n">
-        <v>2337.649954836976</v>
+        <v>2935.476315897829</v>
       </c>
       <c r="X8" t="n">
-        <v>1937.006557005929</v>
+        <v>2534.832918066782</v>
       </c>
       <c r="Y8" t="n">
-        <v>1536.069883954019</v>
+        <v>2133.896245014872</v>
       </c>
     </row>
     <row r="9">
@@ -4886,25 +4886,25 @@
         <v>73.71591722729714</v>
       </c>
       <c r="K9" t="n">
-        <v>73.71591722729714</v>
+        <v>529.5221734925958</v>
       </c>
       <c r="L9" t="n">
-        <v>73.71591722729714</v>
+        <v>1190.610345411884</v>
       </c>
       <c r="M9" t="n">
-        <v>542.5899304202851</v>
+        <v>1190.610345411884</v>
       </c>
       <c r="N9" t="n">
-        <v>1416.248022531903</v>
+        <v>1386.688503169273</v>
       </c>
       <c r="O9" t="n">
-        <v>2120.205113077797</v>
+        <v>2090.645593715167</v>
       </c>
       <c r="P9" t="n">
-        <v>2120.205113077797</v>
+        <v>2090.645593715167</v>
       </c>
       <c r="Q9" t="n">
-        <v>2120.205113077797</v>
+        <v>2090.645593715167</v>
       </c>
       <c r="R9" t="n">
         <v>2120.205113077797</v>
@@ -4938,7 +4938,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>73.71591722729714</v>
+        <v>244.8092896655806</v>
       </c>
       <c r="C10" t="n">
         <v>73.71591722729714</v>
@@ -4986,28 +4986,28 @@
         <v>1603.114813848147</v>
       </c>
       <c r="R10" t="n">
-        <v>1517.842095523547</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="S10" t="n">
-        <v>1331.450327403457</v>
+        <v>1416.723045728058</v>
       </c>
       <c r="T10" t="n">
-        <v>1091.901588380159</v>
+        <v>1416.723045728058</v>
       </c>
       <c r="U10" t="n">
-        <v>809.1034409262836</v>
+        <v>1416.723045728058</v>
       </c>
       <c r="V10" t="n">
-        <v>535.2176958658056</v>
+        <v>1174.658221302303</v>
       </c>
       <c r="W10" t="n">
-        <v>256.1480313746799</v>
+        <v>895.5885568111769</v>
       </c>
       <c r="X10" t="n">
-        <v>73.71591722729714</v>
+        <v>657.2446946708603</v>
       </c>
       <c r="Y10" t="n">
-        <v>73.71591722729714</v>
+        <v>432.508996059625</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1740.396755289059</v>
+        <v>2132.40334945755</v>
       </c>
       <c r="C11" t="n">
-        <v>1330.272164602329</v>
+        <v>1722.27875877082</v>
       </c>
       <c r="D11" t="n">
-        <v>1330.272164602329</v>
+        <v>1317.814828863881</v>
       </c>
       <c r="E11" t="n">
-        <v>915.9319491192259</v>
+        <v>903.4746133807774</v>
       </c>
       <c r="F11" t="n">
-        <v>494.9015370729135</v>
+        <v>482.444201334465</v>
       </c>
       <c r="G11" t="n">
-        <v>86.17325296574563</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H11" t="n">
         <v>73.71591722729714</v>
@@ -5041,22 +5041,22 @@
         <v>73.71591722729714</v>
       </c>
       <c r="J11" t="n">
-        <v>327.9013886950514</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K11" t="n">
-        <v>866.0608898040909</v>
+        <v>611.8754183363367</v>
       </c>
       <c r="L11" t="n">
-        <v>1578.652289616329</v>
+        <v>1324.466818148575</v>
       </c>
       <c r="M11" t="n">
-        <v>2354.970880608083</v>
+        <v>2100.785409140329</v>
       </c>
       <c r="N11" t="n">
-        <v>3108.151897246701</v>
+        <v>2853.966425778947</v>
       </c>
       <c r="O11" t="n">
-        <v>3685.795861364857</v>
+        <v>3497.597282196052</v>
       </c>
       <c r="P11" t="n">
         <v>3685.795861364857</v>
@@ -5068,25 +5068,25 @@
         <v>3685.795861364857</v>
       </c>
       <c r="S11" t="n">
-        <v>3685.795861364857</v>
+        <v>3550.514786158958</v>
       </c>
       <c r="T11" t="n">
-        <v>3685.795861364857</v>
+        <v>3328.308302105817</v>
       </c>
       <c r="U11" t="n">
-        <v>3685.795861364857</v>
+        <v>3328.308302105817</v>
       </c>
       <c r="V11" t="n">
-        <v>3335.958306701338</v>
+        <v>3328.308302105817</v>
       </c>
       <c r="W11" t="n">
-        <v>2952.198005836506</v>
+        <v>2944.548001240985</v>
       </c>
       <c r="X11" t="n">
-        <v>2551.554608005459</v>
+        <v>2543.904603409938</v>
       </c>
       <c r="Y11" t="n">
-        <v>2150.617934953549</v>
+        <v>2142.967930358028</v>
       </c>
     </row>
     <row r="12">
@@ -5126,19 +5126,19 @@
         <v>73.71591722729714</v>
       </c>
       <c r="L12" t="n">
-        <v>73.71591722729714</v>
+        <v>223.4264771533528</v>
       </c>
       <c r="M12" t="n">
-        <v>542.5899304202851</v>
+        <v>1066.40355784792</v>
       </c>
       <c r="N12" t="n">
-        <v>1416.248022531903</v>
+        <v>1066.40355784792</v>
       </c>
       <c r="O12" t="n">
-        <v>2120.205113077797</v>
+        <v>1770.360648393814</v>
       </c>
       <c r="P12" t="n">
-        <v>2120.205113077797</v>
+        <v>1770.360648393814</v>
       </c>
       <c r="Q12" t="n">
         <v>2120.205113077797</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1163.049767528434</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="C13" t="n">
-        <v>991.9563950901502</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="D13" t="n">
-        <v>832.4617504130601</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="E13" t="n">
-        <v>671.5509352813797</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="F13" t="n">
-        <v>506.9198093919709</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="G13" t="n">
-        <v>339.6694183175143</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H13" t="n">
-        <v>190.061963122971</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I13" t="n">
         <v>73.71591722729714</v>
@@ -5229,22 +5229,22 @@
         <v>1603.114813848147</v>
       </c>
       <c r="T13" t="n">
-        <v>1603.114813848147</v>
+        <v>1363.566074824849</v>
       </c>
       <c r="U13" t="n">
-        <v>1603.114813848147</v>
+        <v>1080.767927370974</v>
       </c>
       <c r="V13" t="n">
-        <v>1603.114813848147</v>
+        <v>806.8821823104956</v>
       </c>
       <c r="W13" t="n">
-        <v>1603.114813848147</v>
+        <v>527.81251781937</v>
       </c>
       <c r="X13" t="n">
-        <v>1575.485172533713</v>
+        <v>289.4686556790534</v>
       </c>
       <c r="Y13" t="n">
-        <v>1350.749473922478</v>
+        <v>73.71591722729714</v>
       </c>
     </row>
     <row r="14">
@@ -5254,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1628.723326236163</v>
+        <v>1605.11568008316</v>
       </c>
       <c r="C14" t="n">
-        <v>1628.723326236163</v>
+        <v>1194.99108939643</v>
       </c>
       <c r="D14" t="n">
-        <v>1628.723326236163</v>
+        <v>793.352698706747</v>
       </c>
       <c r="E14" t="n">
-        <v>1214.38311075306</v>
+        <v>793.352698706747</v>
       </c>
       <c r="F14" t="n">
         <v>793.352698706747</v>
@@ -5290,16 +5290,16 @@
         <v>2354.970880608083</v>
       </c>
       <c r="N14" t="n">
-        <v>3108.151897246701</v>
+        <v>2354.970880608083</v>
       </c>
       <c r="O14" t="n">
-        <v>3324.07820888</v>
+        <v>2998.601737025188</v>
       </c>
       <c r="P14" t="n">
-        <v>3324.07820888</v>
+        <v>3527.75843494434</v>
       </c>
       <c r="Q14" t="n">
-        <v>3645.239215675292</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="R14" t="n">
         <v>3685.795861364857</v>
@@ -5308,22 +5308,22 @@
         <v>3550.514786158958</v>
       </c>
       <c r="T14" t="n">
-        <v>3328.308302105817</v>
+        <v>3550.514786158958</v>
       </c>
       <c r="U14" t="n">
-        <v>3071.247810365327</v>
+        <v>3550.514786158958</v>
       </c>
       <c r="V14" t="n">
-        <v>2840.52457678361</v>
+        <v>3200.677231495439</v>
       </c>
       <c r="W14" t="n">
-        <v>2840.52457678361</v>
+        <v>2816.916930630607</v>
       </c>
       <c r="X14" t="n">
-        <v>2439.881178952562</v>
+        <v>2416.27353279956</v>
       </c>
       <c r="Y14" t="n">
-        <v>2038.944505900652</v>
+        <v>2015.33685974765</v>
       </c>
     </row>
     <row r="15">
@@ -5357,25 +5357,25 @@
         <v>73.71591722729714</v>
       </c>
       <c r="J15" t="n">
-        <v>73.71591722729714</v>
+        <v>266.5287747899304</v>
       </c>
       <c r="K15" t="n">
-        <v>73.71591722729714</v>
+        <v>722.3350310552291</v>
       </c>
       <c r="L15" t="n">
-        <v>73.71591722729714</v>
+        <v>1208.654755905284</v>
       </c>
       <c r="M15" t="n">
-        <v>542.5899304202851</v>
+        <v>1208.654755905284</v>
       </c>
       <c r="N15" t="n">
-        <v>1416.248022531903</v>
+        <v>1208.654755905284</v>
       </c>
       <c r="O15" t="n">
-        <v>2120.205113077797</v>
+        <v>1208.654755905284</v>
       </c>
       <c r="P15" t="n">
-        <v>2120.205113077797</v>
+        <v>1770.360648393814</v>
       </c>
       <c r="Q15" t="n">
         <v>2120.205113077797</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>535.2176958658056</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="C16" t="n">
-        <v>535.2176958658056</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="D16" t="n">
-        <v>535.2176958658056</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="E16" t="n">
-        <v>535.2176958658056</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="F16" t="n">
-        <v>506.9198093919709</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="G16" t="n">
-        <v>339.6694183175143</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H16" t="n">
-        <v>190.061963122971</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I16" t="n">
         <v>73.71591722729714</v>
@@ -5460,28 +5460,28 @@
         <v>1603.114813848147</v>
       </c>
       <c r="R16" t="n">
-        <v>1517.842095523547</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="S16" t="n">
-        <v>1331.450327403457</v>
+        <v>1416.723045728058</v>
       </c>
       <c r="T16" t="n">
-        <v>1091.901588380159</v>
+        <v>1177.17430670476</v>
       </c>
       <c r="U16" t="n">
-        <v>809.1034409262836</v>
+        <v>894.3761592508838</v>
       </c>
       <c r="V16" t="n">
-        <v>535.2176958658056</v>
+        <v>620.4904141904058</v>
       </c>
       <c r="W16" t="n">
-        <v>535.2176958658056</v>
+        <v>536.795477978849</v>
       </c>
       <c r="X16" t="n">
-        <v>535.2176958658056</v>
+        <v>298.4516158385325</v>
       </c>
       <c r="Y16" t="n">
-        <v>535.2176958658056</v>
+        <v>73.71591722729714</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2462.839627293158</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C17" t="n">
-        <v>2052.715036606428</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D17" t="n">
-        <v>1648.251106699488</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E17" t="n">
-        <v>1233.910891216385</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F17" t="n">
-        <v>812.8804791700727</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G17" t="n">
-        <v>404.1521950629048</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H17" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I17" t="n">
         <v>93.2436976906228</v>
@@ -5548,19 +5548,19 @@
         <v>4662.18488453114</v>
       </c>
       <c r="U17" t="n">
-        <v>4408.238733368956</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V17" t="n">
-        <v>4058.401178705436</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W17" t="n">
-        <v>3674.640877840605</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X17" t="n">
-        <v>3273.997480009557</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y17" t="n">
-        <v>2873.060806957647</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="18">
@@ -5594,19 +5594,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J18" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K18" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L18" t="n">
-        <v>93.2436976906228</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M18" t="n">
-        <v>936.2207783851894</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="N18" t="n">
-        <v>1809.878870496807</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O18" t="n">
         <v>2139.732893541123</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>266.8531555313633</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C19" t="n">
-        <v>95.75978309307982</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D19" t="n">
-        <v>95.75978309307982</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E19" t="n">
-        <v>95.75978309307982</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F19" t="n">
-        <v>95.75978309307982</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G19" t="n">
         <v>93.2436976906228</v>
@@ -5700,25 +5700,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S19" t="n">
-        <v>1436.250826191383</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T19" t="n">
-        <v>1196.702087168085</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U19" t="n">
-        <v>1196.702087168085</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V19" t="n">
-        <v>1196.702087168085</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W19" t="n">
-        <v>917.6324226769595</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X19" t="n">
-        <v>679.288560536643</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y19" t="n">
-        <v>454.5528619254077</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="20">
@@ -5755,7 +5755,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K20" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L20" t="n">
         <v>1598.180070079655</v>
@@ -5782,7 +5782,7 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T20" t="n">
-        <v>4526.90380932524</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="U20" t="n">
         <v>4494.590496051882</v>
@@ -5834,22 +5834,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K21" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L21" t="n">
-        <v>93.2436976906228</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M21" t="n">
-        <v>936.2207783851894</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N21" t="n">
-        <v>1809.878870496807</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O21" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P21" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q21" t="n">
         <v>2139.732893541123</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>827.6148396568026</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C22" t="n">
-        <v>827.6148396568026</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D22" t="n">
-        <v>827.6148396568026</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E22" t="n">
-        <v>691.0787157447054</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F22" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G22" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H22" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I22" t="n">
         <v>93.2436976906228</v>
@@ -5940,22 +5940,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T22" t="n">
-        <v>1622.642594311473</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U22" t="n">
-        <v>1339.844446857597</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V22" t="n">
-        <v>1065.958701797119</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W22" t="n">
-        <v>1065.958701797119</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X22" t="n">
-        <v>827.6148396568026</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y22" t="n">
-        <v>827.6148396568026</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="23">
@@ -5965,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2102.237727455811</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C23" t="n">
-        <v>1692.113136769081</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D23" t="n">
-        <v>1287.649206862142</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E23" t="n">
         <v>1233.910891216385</v>
@@ -6016,25 +6016,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S23" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T23" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U23" t="n">
-        <v>4047.636833531609</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V23" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W23" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X23" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y23" t="n">
-        <v>2512.458907120301</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="24">
@@ -6071,22 +6071,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K24" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L24" t="n">
-        <v>93.2436976906228</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M24" t="n">
-        <v>936.2207783851894</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N24" t="n">
-        <v>1809.878870496807</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O24" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P24" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q24" t="n">
         <v>2139.732893541123</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4011.405617385543</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C25" t="n">
-        <v>3840.31224494726</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D25" t="n">
-        <v>3680.81760027017</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E25" t="n">
-        <v>3519.906785138489</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F25" t="n">
-        <v>3355.27565924908</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G25" t="n">
-        <v>3188.025268174624</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H25" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I25" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J25" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K25" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L25" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M25" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N25" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O25" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P25" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q25" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R25" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S25" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T25" t="n">
-        <v>4662.18488453114</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U25" t="n">
-        <v>4662.18488453114</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V25" t="n">
-        <v>4662.18488453114</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W25" t="n">
-        <v>4662.18488453114</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X25" t="n">
-        <v>4423.841022390823</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y25" t="n">
-        <v>4199.105323779588</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="26">
@@ -6253,10 +6253,10 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S26" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T26" t="n">
-        <v>4526.90380932524</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="U26" t="n">
         <v>4494.590496051882</v>
@@ -6308,22 +6308,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K27" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L27" t="n">
-        <v>93.2436976906228</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M27" t="n">
-        <v>936.2207783851894</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N27" t="n">
-        <v>1809.878870496807</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O27" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P27" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q27" t="n">
         <v>2139.732893541123</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C28" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D28" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E28" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F28" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G28" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H28" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I28" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J28" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K28" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L28" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M28" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N28" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O28" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P28" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q28" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R28" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S28" t="n">
-        <v>4390.520398086449</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T28" t="n">
-        <v>4150.971659063151</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U28" t="n">
-        <v>3868.173511609275</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V28" t="n">
-        <v>3594.287766548796</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W28" t="n">
-        <v>3315.218102057671</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X28" t="n">
-        <v>3132.785987910289</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y28" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2102.237727455811</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C29" t="n">
-        <v>1692.113136769081</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D29" t="n">
-        <v>1287.649206862142</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E29" t="n">
-        <v>873.3089913790386</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F29" t="n">
-        <v>452.2785793327262</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G29" t="n">
-        <v>93.2436976906228</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H29" t="n">
         <v>93.2436976906228</v>
@@ -6490,25 +6490,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S29" t="n">
-        <v>4526.90380932524</v>
+        <v>4630.445217422097</v>
       </c>
       <c r="T29" t="n">
-        <v>4304.697325272099</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="U29" t="n">
-        <v>4047.636833531609</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V29" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W29" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X29" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y29" t="n">
-        <v>2512.458907120301</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="30">
@@ -6545,22 +6545,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K30" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L30" t="n">
-        <v>93.2436976906228</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M30" t="n">
-        <v>562.1177108836107</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N30" t="n">
-        <v>1435.775802995229</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O30" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P30" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q30" t="n">
         <v>2139.732893541123</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1182.57754799176</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C31" t="n">
-        <v>1011.484175553476</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D31" t="n">
-        <v>851.989530876386</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E31" t="n">
-        <v>691.0787157447054</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F31" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G31" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H31" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I31" t="n">
         <v>93.2436976906228</v>
@@ -6654,19 +6654,19 @@
         <v>1383.093855288175</v>
       </c>
       <c r="U31" t="n">
-        <v>1383.093855288175</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V31" t="n">
-        <v>1383.093855288175</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W31" t="n">
-        <v>1383.093855288175</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X31" t="n">
-        <v>1383.093855288175</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y31" t="n">
-        <v>1370.277254385804</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2102.237727455811</v>
+        <v>2238.282892603803</v>
       </c>
       <c r="C32" t="n">
-        <v>1692.113136769081</v>
+        <v>1828.158301917073</v>
       </c>
       <c r="D32" t="n">
-        <v>1287.649206862142</v>
+        <v>1423.694372010133</v>
       </c>
       <c r="E32" t="n">
-        <v>873.3089913790386</v>
+        <v>1009.35415652703</v>
       </c>
       <c r="F32" t="n">
-        <v>452.2785793327262</v>
+        <v>588.3237444807176</v>
       </c>
       <c r="G32" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="H32" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I32" t="n">
         <v>93.2436976906228</v>
@@ -6730,22 +6730,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T32" t="n">
-        <v>4304.697325272099</v>
+        <v>4440.742490420091</v>
       </c>
       <c r="U32" t="n">
-        <v>4047.636833531609</v>
+        <v>4183.681998679601</v>
       </c>
       <c r="V32" t="n">
-        <v>3697.79927886809</v>
+        <v>3833.844444016082</v>
       </c>
       <c r="W32" t="n">
-        <v>3314.038978003258</v>
+        <v>3450.08414315125</v>
       </c>
       <c r="X32" t="n">
-        <v>2913.395580172211</v>
+        <v>3049.440745320202</v>
       </c>
       <c r="Y32" t="n">
-        <v>2512.458907120301</v>
+        <v>2648.504072268292</v>
       </c>
     </row>
     <row r="33">
@@ -6788,16 +6788,16 @@
         <v>549.0499539559215</v>
       </c>
       <c r="M33" t="n">
-        <v>1392.027034650488</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="N33" t="n">
-        <v>1578.027001052593</v>
+        <v>1422.708046067539</v>
       </c>
       <c r="O33" t="n">
-        <v>1578.027001052593</v>
+        <v>1422.708046067539</v>
       </c>
       <c r="P33" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q33" t="n">
         <v>2139.732893541123</v>
@@ -6834,10 +6834,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>418.9079176142731</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C34" t="n">
-        <v>247.8145451759896</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D34" t="n">
         <v>93.2436976906228</v>
@@ -6888,22 +6888,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T34" t="n">
-        <v>1622.642594311473</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U34" t="n">
-        <v>1622.642594311473</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V34" t="n">
-        <v>1348.756849250995</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W34" t="n">
-        <v>1069.687184759869</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X34" t="n">
-        <v>831.3433226195527</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y34" t="n">
-        <v>606.6076240083174</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2238.282892603803</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C35" t="n">
-        <v>1828.158301917073</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D35" t="n">
-        <v>1423.694372010133</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E35" t="n">
-        <v>1009.35415652703</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F35" t="n">
-        <v>588.3237444807176</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G35" t="n">
-        <v>179.5954603735497</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H35" t="n">
         <v>179.5954603735497</v>
@@ -6964,25 +6964,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S35" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T35" t="n">
-        <v>4440.742490420091</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U35" t="n">
-        <v>4183.681998679601</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V35" t="n">
-        <v>3833.844444016082</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W35" t="n">
-        <v>3450.08414315125</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X35" t="n">
-        <v>3049.440745320202</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y35" t="n">
-        <v>2648.504072268292</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="36">
@@ -7019,19 +7019,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K36" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L36" t="n">
-        <v>93.2436976906228</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M36" t="n">
-        <v>916.2303367455215</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N36" t="n">
-        <v>1789.888428857139</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O36" t="n">
-        <v>1789.888428857139</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P36" t="n">
         <v>1789.888428857139</v>
@@ -7119,25 +7119,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R37" t="n">
-        <v>1593.281623979807</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S37" t="n">
-        <v>1406.889855859717</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T37" t="n">
-        <v>1167.341116836419</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U37" t="n">
-        <v>884.5429693825431</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V37" t="n">
-        <v>610.6572243220651</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W37" t="n">
-        <v>331.5875598309394</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X37" t="n">
-        <v>93.2436976906228</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y37" t="n">
         <v>93.2436976906228</v>
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2549.191389976085</v>
+        <v>2238.282892603803</v>
       </c>
       <c r="C38" t="n">
-        <v>2139.066799289355</v>
+        <v>1828.158301917073</v>
       </c>
       <c r="D38" t="n">
-        <v>1734.602869382415</v>
+        <v>1423.694372010133</v>
       </c>
       <c r="E38" t="n">
-        <v>1320.262653899312</v>
+        <v>1009.35415652703</v>
       </c>
       <c r="F38" t="n">
-        <v>899.2322418529996</v>
+        <v>588.3237444807176</v>
       </c>
       <c r="G38" t="n">
-        <v>490.5039577458317</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="H38" t="n">
         <v>179.5954603735497</v>
@@ -7201,25 +7201,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S38" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T38" t="n">
-        <v>4662.18488453114</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U38" t="n">
-        <v>4494.590496051882</v>
+        <v>4183.681998679601</v>
       </c>
       <c r="V38" t="n">
-        <v>4144.752941388363</v>
+        <v>3833.844444016082</v>
       </c>
       <c r="W38" t="n">
-        <v>3760.992640523532</v>
+        <v>3450.08414315125</v>
       </c>
       <c r="X38" t="n">
-        <v>3360.349242692484</v>
+        <v>3049.440745320202</v>
       </c>
       <c r="Y38" t="n">
-        <v>2959.412569640574</v>
+        <v>2648.504072268292</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C39" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D39" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E39" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F39" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G39" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H39" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I39" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J39" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K39" t="n">
-        <v>2615.69568868064</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L39" t="n">
-        <v>2615.69568868064</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M39" t="n">
-        <v>3458.672769375206</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N39" t="n">
-        <v>4332.330861486824</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O39" t="n">
-        <v>4662.18488453114</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P39" t="n">
-        <v>4662.18488453114</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q39" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R39" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S39" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T39" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U39" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V39" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W39" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X39" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y39" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="40">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>275.6758118380055</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C40" t="n">
-        <v>275.6758118380055</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D40" t="n">
-        <v>275.6758118380055</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E40" t="n">
-        <v>275.6758118380055</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F40" t="n">
-        <v>275.6758118380055</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G40" t="n">
-        <v>275.6758118380055</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H40" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I40" t="n">
         <v>93.2436976906228</v>
@@ -7356,28 +7356,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R40" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S40" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T40" t="n">
-        <v>1111.429368843485</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U40" t="n">
-        <v>828.6312213896092</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V40" t="n">
-        <v>554.7454763291312</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W40" t="n">
-        <v>275.6758118380055</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X40" t="n">
-        <v>275.6758118380055</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y40" t="n">
-        <v>275.6758118380055</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2125.199679605819</v>
+        <v>1954.95323474668</v>
       </c>
       <c r="C41" t="n">
-        <v>1715.075088919089</v>
+        <v>1544.82864405995</v>
       </c>
       <c r="D41" t="n">
-        <v>1715.075088919089</v>
+        <v>1140.36471415301</v>
       </c>
       <c r="E41" t="n">
-        <v>1300.734873435986</v>
+        <v>726.0244986699067</v>
       </c>
       <c r="F41" t="n">
-        <v>879.7044613896738</v>
+        <v>304.9940866235943</v>
       </c>
       <c r="G41" t="n">
-        <v>470.976177282506</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H41" t="n">
-        <v>160.067679910224</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I41" t="n">
         <v>73.71591722729714</v>
       </c>
       <c r="J41" t="n">
-        <v>73.71591722729714</v>
+        <v>327.9013886950514</v>
       </c>
       <c r="K41" t="n">
-        <v>611.8754183363367</v>
+        <v>866.0608898040909</v>
       </c>
       <c r="L41" t="n">
-        <v>1324.466818148575</v>
+        <v>1578.652289616329</v>
       </c>
       <c r="M41" t="n">
-        <v>2100.785409140329</v>
+        <v>2354.970880608083</v>
       </c>
       <c r="N41" t="n">
-        <v>2472.451661339036</v>
+        <v>2354.970880608083</v>
       </c>
       <c r="O41" t="n">
-        <v>3116.082517756141</v>
+        <v>2835.478156650413</v>
       </c>
       <c r="P41" t="n">
-        <v>3645.239215675292</v>
+        <v>3364.634854569565</v>
       </c>
       <c r="Q41" t="n">
-        <v>3645.239215675292</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="R41" t="n">
         <v>3685.795861364857</v>
       </c>
       <c r="S41" t="n">
-        <v>3685.795861364857</v>
+        <v>3550.514786158958</v>
       </c>
       <c r="T41" t="n">
-        <v>3685.795861364857</v>
+        <v>3550.514786158958</v>
       </c>
       <c r="U41" t="n">
-        <v>3685.795861364857</v>
+        <v>3550.514786158958</v>
       </c>
       <c r="V41" t="n">
-        <v>3335.958306701338</v>
+        <v>3550.514786158958</v>
       </c>
       <c r="W41" t="n">
-        <v>2952.198005836506</v>
+        <v>3166.754485294126</v>
       </c>
       <c r="X41" t="n">
-        <v>2551.554608005459</v>
+        <v>2766.111087463079</v>
       </c>
       <c r="Y41" t="n">
-        <v>2150.617934953549</v>
+        <v>2365.174414411169</v>
       </c>
     </row>
     <row r="42">
@@ -7493,22 +7493,22 @@
         <v>73.71591722729714</v>
       </c>
       <c r="K42" t="n">
-        <v>73.71591722729714</v>
+        <v>529.5221734925958</v>
       </c>
       <c r="L42" t="n">
-        <v>73.71591722729714</v>
+        <v>1190.610345411884</v>
       </c>
       <c r="M42" t="n">
-        <v>542.5899304202851</v>
+        <v>1208.654755905284</v>
       </c>
       <c r="N42" t="n">
-        <v>1416.248022531903</v>
+        <v>1208.654755905284</v>
       </c>
       <c r="O42" t="n">
-        <v>2120.205113077797</v>
+        <v>1208.654755905284</v>
       </c>
       <c r="P42" t="n">
-        <v>2120.205113077797</v>
+        <v>1770.360648393814</v>
       </c>
       <c r="Q42" t="n">
         <v>2120.205113077797</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2647.895796991062</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="C43" t="n">
-        <v>2476.802424552778</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="D43" t="n">
-        <v>2317.307779875688</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="E43" t="n">
-        <v>2156.396964744008</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="F43" t="n">
-        <v>2156.396964744008</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="G43" t="n">
-        <v>2156.396964744008</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H43" t="n">
-        <v>2156.396964744008</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I43" t="n">
-        <v>2156.396964744008</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J43" t="n">
-        <v>2170.479514149218</v>
+        <v>87.79846663250765</v>
       </c>
       <c r="K43" t="n">
-        <v>2325.031841871456</v>
+        <v>242.3507943547456</v>
       </c>
       <c r="L43" t="n">
-        <v>2584.928942151516</v>
+        <v>502.2478946348062</v>
       </c>
       <c r="M43" t="n">
-        <v>2874.19299859201</v>
+        <v>791.5119510752995</v>
       </c>
       <c r="N43" t="n">
-        <v>3155.03178098626</v>
+        <v>1072.35073346955</v>
       </c>
       <c r="O43" t="n">
-        <v>3414.592391312734</v>
+        <v>1331.911343796024</v>
       </c>
       <c r="P43" t="n">
-        <v>3620.267831562346</v>
+        <v>1537.586784045636</v>
       </c>
       <c r="Q43" t="n">
-        <v>3685.795861364857</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="R43" t="n">
-        <v>3600.523143040257</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="S43" t="n">
-        <v>3414.131374920167</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="T43" t="n">
-        <v>3174.582635896869</v>
+        <v>1363.566074824849</v>
       </c>
       <c r="U43" t="n">
-        <v>2891.784488442993</v>
+        <v>1080.767927370974</v>
       </c>
       <c r="V43" t="n">
-        <v>2647.895796991062</v>
+        <v>806.8821823104956</v>
       </c>
       <c r="W43" t="n">
-        <v>2647.895796991062</v>
+        <v>527.81251781937</v>
       </c>
       <c r="X43" t="n">
-        <v>2647.895796991062</v>
+        <v>289.4686556790534</v>
       </c>
       <c r="Y43" t="n">
-        <v>2647.895796991062</v>
+        <v>73.71591722729714</v>
       </c>
     </row>
     <row r="44">
@@ -7624,49 +7624,49 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1694.292981983343</v>
+        <v>2132.40334945755</v>
       </c>
       <c r="C44" t="n">
-        <v>1284.168391296613</v>
+        <v>1722.27875877082</v>
       </c>
       <c r="D44" t="n">
-        <v>879.7044613896738</v>
+        <v>1317.814828863881</v>
       </c>
       <c r="E44" t="n">
-        <v>879.7044613896738</v>
+        <v>903.4746133807774</v>
       </c>
       <c r="F44" t="n">
-        <v>879.7044613896738</v>
+        <v>482.444201334465</v>
       </c>
       <c r="G44" t="n">
-        <v>470.976177282506</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H44" t="n">
-        <v>160.067679910224</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I44" t="n">
         <v>73.71591722729714</v>
       </c>
       <c r="J44" t="n">
-        <v>327.9013886950514</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K44" t="n">
-        <v>866.0608898040909</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="L44" t="n">
-        <v>1578.652289616329</v>
+        <v>786.3073170395352</v>
       </c>
       <c r="M44" t="n">
-        <v>2354.970880608083</v>
+        <v>1562.625908031289</v>
       </c>
       <c r="N44" t="n">
-        <v>3108.151897246701</v>
+        <v>2315.806924669907</v>
       </c>
       <c r="O44" t="n">
-        <v>3645.239215675292</v>
+        <v>2794.921510960849</v>
       </c>
       <c r="P44" t="n">
-        <v>3645.239215675292</v>
+        <v>3324.07820888</v>
       </c>
       <c r="Q44" t="n">
         <v>3645.239215675292</v>
@@ -7675,25 +7675,25 @@
         <v>3685.795861364857</v>
       </c>
       <c r="S44" t="n">
-        <v>3550.514786158958</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="T44" t="n">
-        <v>3328.308302105817</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="U44" t="n">
-        <v>3071.247810365327</v>
+        <v>3428.735369624367</v>
       </c>
       <c r="V44" t="n">
-        <v>2879.633353731132</v>
+        <v>3078.897814960848</v>
       </c>
       <c r="W44" t="n">
-        <v>2495.8730528663</v>
+        <v>2695.137514096016</v>
       </c>
       <c r="X44" t="n">
-        <v>2095.229655035253</v>
+        <v>2695.137514096016</v>
       </c>
       <c r="Y44" t="n">
-        <v>1694.292981983343</v>
+        <v>2542.624529122039</v>
       </c>
     </row>
     <row r="45">
@@ -7727,25 +7727,25 @@
         <v>73.71591722729714</v>
       </c>
       <c r="J45" t="n">
-        <v>73.71591722729714</v>
+        <v>266.5287747899304</v>
       </c>
       <c r="K45" t="n">
-        <v>73.71591722729714</v>
+        <v>722.3350310552291</v>
       </c>
       <c r="L45" t="n">
-        <v>734.8040891465854</v>
+        <v>1208.654755905284</v>
       </c>
       <c r="M45" t="n">
-        <v>1246.547020966179</v>
+        <v>1208.654755905284</v>
       </c>
       <c r="N45" t="n">
-        <v>2120.205113077797</v>
+        <v>1208.654755905284</v>
       </c>
       <c r="O45" t="n">
-        <v>2120.205113077797</v>
+        <v>1208.654755905284</v>
       </c>
       <c r="P45" t="n">
-        <v>2120.205113077797</v>
+        <v>1770.360648393814</v>
       </c>
       <c r="Q45" t="n">
         <v>2120.205113077797</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>409.4404155549894</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="C46" t="n">
-        <v>238.3470431167059</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="D46" t="n">
-        <v>238.3470431167059</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="E46" t="n">
-        <v>238.3470431167059</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="F46" t="n">
         <v>73.71591722729714</v>
@@ -7830,28 +7830,28 @@
         <v>1603.114813848147</v>
       </c>
       <c r="R46" t="n">
-        <v>1517.842095523547</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="S46" t="n">
-        <v>1331.450327403457</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="T46" t="n">
-        <v>1091.901588380159</v>
+        <v>1363.566074824849</v>
       </c>
       <c r="U46" t="n">
-        <v>1060.219682700586</v>
+        <v>1080.767927370974</v>
       </c>
       <c r="V46" t="n">
-        <v>1060.219682700586</v>
+        <v>806.8821823104956</v>
       </c>
       <c r="W46" t="n">
-        <v>1060.219682700586</v>
+        <v>527.81251781937</v>
       </c>
       <c r="X46" t="n">
-        <v>821.8758205602691</v>
+        <v>289.4686556790534</v>
       </c>
       <c r="Y46" t="n">
-        <v>597.1401219490338</v>
+        <v>73.71591722729714</v>
       </c>
     </row>
   </sheetData>
@@ -7987,13 +7987,13 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M2" t="n">
-        <v>208.6432198571623</v>
+        <v>817.8090892789201</v>
       </c>
       <c r="N2" t="n">
         <v>853.701196452193</v>
       </c>
       <c r="O2" t="n">
-        <v>743.321953824879</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P2" t="n">
         <v>628.1510783507341</v>
@@ -8002,7 +8002,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R2" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8066,22 +8066,22 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N3" t="n">
-        <v>53.19339339374999</v>
+        <v>861.1477197149511</v>
       </c>
       <c r="O3" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P3" t="n">
-        <v>334.2421074116683</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q3" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8218,7 +8218,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
-        <v>632.7318453389136</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L5" t="n">
         <v>815.2746908024792</v>
@@ -8227,16 +8227,16 @@
         <v>877.4504173780091</v>
       </c>
       <c r="N5" t="n">
-        <v>211.5797460404098</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O5" t="n">
-        <v>743.321953824879</v>
+        <v>320.3909017098107</v>
       </c>
       <c r="P5" t="n">
         <v>628.1510783507341</v>
       </c>
       <c r="Q5" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
         <v>128.2784515920617</v>
@@ -8294,19 +8294,19 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K6" t="n">
-        <v>196.0142788843133</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M6" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
-        <v>53.19339339374999</v>
+        <v>565.6397216691981</v>
       </c>
       <c r="O6" t="n">
         <v>768.8192472281761</v>
@@ -8318,7 +8318,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8452,13 +8452,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K8" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L8" t="n">
-        <v>392.3436386874106</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M8" t="n">
         <v>877.4504173780091</v>
@@ -8473,10 +8473,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q8" t="n">
-        <v>414.4388617681339</v>
+        <v>289.2271199129839</v>
       </c>
       <c r="R8" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8534,16 +8534,16 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K9" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M9" t="n">
-        <v>531.1743980747689</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
-        <v>935.6763147186165</v>
+        <v>251.2521386032338</v>
       </c>
       <c r="O9" t="n">
         <v>768.8192472281761</v>
@@ -8555,7 +8555,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R9" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K11" t="n">
         <v>632.7318453389136</v>
@@ -8704,10 +8704,10 @@
         <v>853.701196452193</v>
       </c>
       <c r="O11" t="n">
-        <v>676.6685272602841</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P11" t="n">
-        <v>93.64936328088416</v>
+        <v>283.7489381988693</v>
       </c>
       <c r="Q11" t="n">
         <v>90.03380439915205</v>
@@ -8774,13 +8774,13 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L12" t="n">
-        <v>56.11452381084905</v>
+        <v>207.3373116149457</v>
       </c>
       <c r="M12" t="n">
-        <v>531.1743980747689</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N12" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
         <v>768.8192472281761</v>
@@ -8789,7 +8789,7 @@
         <v>54.25963500280375</v>
       </c>
       <c r="Q12" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R12" t="n">
         <v>59.00019910540541</v>
@@ -8938,19 +8938,19 @@
         <v>877.4504173780091</v>
       </c>
       <c r="N14" t="n">
-        <v>853.701196452193</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O14" t="n">
-        <v>311.297161113964</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P14" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q14" t="n">
-        <v>414.4388617681339</v>
+        <v>249.6675684602808</v>
       </c>
       <c r="R14" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,28 +9005,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
-        <v>56.11452381084905</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M15" t="n">
-        <v>531.1743980747689</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P15" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q15" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R15" t="n">
         <v>59.00019910540541</v>
@@ -9169,7 +9169,7 @@
         <v>632.7318453389136</v>
       </c>
       <c r="L17" t="n">
-        <v>815.2746908024792</v>
+        <v>815.2746908024794</v>
       </c>
       <c r="M17" t="n">
         <v>877.4504173780091</v>
@@ -9178,7 +9178,7 @@
         <v>853.701196452193</v>
       </c>
       <c r="O17" t="n">
-        <v>743.3219538248791</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P17" t="n">
         <v>628.1510783507341</v>
@@ -9242,22 +9242,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M18" t="n">
-        <v>909.0562844399999</v>
+        <v>90.72066712971599</v>
       </c>
       <c r="N18" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P18" t="n">
         <v>54.25963500280375</v>
@@ -9403,7 +9403,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K20" t="n">
-        <v>632.7318453389136</v>
+        <v>632.7318453389137</v>
       </c>
       <c r="L20" t="n">
         <v>815.2746908024792</v>
@@ -9482,25 +9482,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K21" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M21" t="n">
-        <v>909.0562844399999</v>
+        <v>75.79096100447751</v>
       </c>
       <c r="N21" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P21" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q21" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
         <v>59.00019910540541</v>
@@ -9719,25 +9719,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K24" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M24" t="n">
-        <v>909.0562844399999</v>
+        <v>75.79096100447751</v>
       </c>
       <c r="N24" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P24" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
         <v>59.00019910540541</v>
@@ -9956,25 +9956,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K27" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M27" t="n">
-        <v>909.0562844399999</v>
+        <v>75.79096100447751</v>
       </c>
       <c r="N27" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P27" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q27" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
         <v>59.00019910540541</v>
@@ -10193,25 +10193,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K30" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M30" t="n">
-        <v>531.1743980747688</v>
+        <v>75.79096100447751</v>
       </c>
       <c r="N30" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P30" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q30" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
         <v>59.00019910540541</v>
@@ -10436,19 +10436,19 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M33" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N33" t="n">
-        <v>241.07214733527</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O33" t="n">
         <v>57.751479</v>
       </c>
       <c r="P33" t="n">
-        <v>621.6393243851574</v>
+        <v>425.1489105478544</v>
       </c>
       <c r="Q33" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
         <v>59.00019910540541</v>
@@ -10667,22 +10667,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K36" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M36" t="n">
-        <v>888.8639191474061</v>
+        <v>75.79096100447751</v>
       </c>
       <c r="N36" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
         <v>57.751479</v>
       </c>
       <c r="P36" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q36" t="n">
         <v>410.0708656603775</v>
@@ -10831,7 +10831,7 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M38" t="n">
-        <v>877.4504173780091</v>
+        <v>877.4504173780092</v>
       </c>
       <c r="N38" t="n">
         <v>853.701196452193</v>
@@ -10904,25 +10904,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K39" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M39" t="n">
-        <v>909.0562844399999</v>
+        <v>75.79096100447751</v>
       </c>
       <c r="N39" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
-        <v>390.9373608629454</v>
+        <v>57.751479</v>
       </c>
       <c r="P39" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q39" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
         <v>59.00019910540541</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
         <v>632.7318453389136</v>
@@ -11071,19 +11071,19 @@
         <v>877.4504173780091</v>
       </c>
       <c r="N41" t="n">
-        <v>468.3327475229898</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O41" t="n">
-        <v>743.321953824879</v>
+        <v>578.550660517026</v>
       </c>
       <c r="P41" t="n">
         <v>628.1510783507341</v>
       </c>
       <c r="Q41" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R41" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11141,25 +11141,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K42" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M42" t="n">
-        <v>531.1743980747689</v>
+        <v>75.79096100447774</v>
       </c>
       <c r="N42" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P42" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
         <v>59.00019910540541</v>
@@ -11296,10 +11296,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K44" t="n">
-        <v>632.7318453389136</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L44" t="n">
         <v>815.2746908024792</v>
@@ -11311,13 +11311,13 @@
         <v>853.701196452193</v>
       </c>
       <c r="O44" t="n">
-        <v>635.7022184829458</v>
+        <v>577.1439031923908</v>
       </c>
       <c r="P44" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q44" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
         <v>128.2784515920617</v>
@@ -11375,28 +11375,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>723.8803540323523</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M45" t="n">
-        <v>574.4763360814417</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N45" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
         <v>57.751479</v>
       </c>
       <c r="P45" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q45" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
         <v>59.00019910540541</v>
@@ -22552,19 +22552,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>138.4524459577281</v>
+        <v>133.2112647242298</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22597,25 +22597,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22704,28 +22704,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22758,22 +22758,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>208.6070786176239</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>8.893130557884291</v>
       </c>
     </row>
     <row r="5">
@@ -22783,19 +22783,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>341.7225991737843</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -22840,7 +22840,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -22849,10 +22849,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>173.0416843670104</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -22989,10 +22989,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -23007,10 +23007,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>55.3526305130045</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884291</v>
       </c>
     </row>
     <row r="8">
@@ -23026,10 +23026,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>267.1395291780698</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -23041,7 +23041,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23074,16 +23074,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>117.3737914145499</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -23178,10 +23178,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>157.8996982303191</v>
@@ -23226,28 +23226,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>31.50271142837585</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>55.3526305130045</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23257,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>395.6600327763716</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>295.4666500174952</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
         <v>85.48824505609757</v>
@@ -23308,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,22 +23469,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>208.6070786176239</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>8.893130557884291</v>
       </c>
     </row>
     <row r="14">
@@ -23497,16 +23497,16 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>400.41929060787</v>
+        <v>2.797283825083696</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23548,16 +23548,16 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
-        <v>117.9231778709838</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23664,16 +23664,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>134.9699070214184</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23715,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>193.4209809967732</v>
       </c>
       <c r="X16" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23752,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23788,7 +23788,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U17" t="n">
-        <v>3.083197172522915</v>
+        <v>88.57144222861982</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
         <v>157.8996982303191</v>
@@ -23904,7 +23904,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>163.0869626152796</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
         <v>148.1113806425979</v>
@@ -23940,16 +23940,16 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="20">
@@ -24022,10 +24022,10 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>219.9844192126098</v>
+        <v>187.994239071985</v>
       </c>
       <c r="U20" t="n">
-        <v>222.4997066824603</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24135,19 +24135,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>24.13094430738749</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,7 +24180,7 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24189,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="23">
@@ -24214,7 +24214,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>356.9958808389731</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24256,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24363,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
-        <v>93.42449318090684</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
         <v>115.1825854367171</v>
@@ -24417,22 +24417,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="26">
@@ -24493,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T26" t="n">
-        <v>219.9844192126098</v>
+        <v>54.06597461814459</v>
       </c>
       <c r="U26" t="n">
-        <v>222.4997066824603</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>55.35263051300575</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="29">
@@ -24694,10 +24694,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>49.19646844041381</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>85.48824505609757</v>
@@ -24730,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>102.5059940158878</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,19 +24894,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>209.7999067317755</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="32">
@@ -24931,13 +24931,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>49.19646844041381</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I32" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24970,7 +24970,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>134.6847134965117</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>4.874559219806002</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
         <v>159.3017069803637</v>
@@ -25128,10 +25128,10 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="35">
@@ -25171,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0.756449042671278</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>222.4997066824603</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>55.35263051300471</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="38">
@@ -25408,7 +25408,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>88.57144222861982</v>
+        <v>134.6847134965117</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
-        <v>82.68617307340614</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="41">
@@ -25627,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>380.9548950735924</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25642,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>175.675613563762</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>219.9844192126098</v>
@@ -25687,7 +25687,7 @@
         <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25788,13 +25788,13 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
         <v>162.9848146305146</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,16 +25845,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>29.69708307246094</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884291</v>
       </c>
     </row>
     <row r="44">
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25873,19 +25873,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>156.6408670490311</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>245.9394511971537</v>
       </c>
     </row>
     <row r="45">
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
         <v>157.8996982303191</v>
@@ -26034,7 +26034,7 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
         <v>165.577887163712</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>248.6050793565591</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>8.893130557884291</v>
       </c>
     </row>
   </sheetData>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>630279.1261531394</v>
+        <v>630279.1261531396</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>630279.1261531394</v>
+        <v>630279.1261531395</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>630279.1261531394</v>
+        <v>630279.1261531395</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>724611.2936980636</v>
+        <v>724611.2936980637</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>724611.2936980636</v>
+        <v>724611.2936980637</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>724611.2936980635</v>
+        <v>724611.2936980637</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>724611.2936980636</v>
+        <v>724611.2936980637</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>724611.2936980634</v>
+        <v>724611.2936980637</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>724611.2936980635</v>
+        <v>724611.2936980637</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>630279.1261531393</v>
+        <v>630279.1261531395</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>630279.1261531395</v>
+        <v>630279.1261531396</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>277141.0629351232</v>
+        <v>277141.0629351231</v>
       </c>
       <c r="C2" t="n">
         <v>277141.0629351232</v>
@@ -26325,37 +26325,37 @@
         <v>277141.0629351232</v>
       </c>
       <c r="F2" t="n">
-        <v>277141.062935123</v>
+        <v>277141.0629351231</v>
       </c>
       <c r="G2" t="n">
-        <v>318613.5342886033</v>
+        <v>318613.5342886032</v>
       </c>
       <c r="H2" t="n">
-        <v>318613.5342886033</v>
+        <v>318613.5342886032</v>
       </c>
       <c r="I2" t="n">
         <v>318613.5342886032</v>
       </c>
       <c r="J2" t="n">
+        <v>318613.5342886033</v>
+      </c>
+      <c r="K2" t="n">
         <v>318613.5342886032</v>
-      </c>
-      <c r="K2" t="n">
-        <v>318613.5342886031</v>
       </c>
       <c r="L2" t="n">
         <v>318613.5342886032</v>
       </c>
       <c r="M2" t="n">
+        <v>318613.5342886033</v>
+      </c>
+      <c r="N2" t="n">
         <v>318613.5342886032</v>
       </c>
-      <c r="N2" t="n">
-        <v>318613.5342886033</v>
-      </c>
       <c r="O2" t="n">
-        <v>277141.062935123</v>
+        <v>277141.0629351231</v>
       </c>
       <c r="P2" t="n">
-        <v>277141.0629351231</v>
+        <v>277141.0629351233</v>
       </c>
     </row>
     <row r="3">
@@ -26429,10 +26429,10 @@
         <v>26230.44077798685</v>
       </c>
       <c r="F4" t="n">
-        <v>26230.44077798685</v>
+        <v>26230.44077798684</v>
       </c>
       <c r="G4" t="n">
-        <v>30192.61954398331</v>
+        <v>30192.61954398332</v>
       </c>
       <c r="H4" t="n">
         <v>30192.61954398331</v>
@@ -26444,7 +26444,7 @@
         <v>30192.61954398331</v>
       </c>
       <c r="K4" t="n">
-        <v>30192.61954398332</v>
+        <v>30192.61954398331</v>
       </c>
       <c r="L4" t="n">
         <v>30192.61954398331</v>
@@ -26453,7 +26453,7 @@
         <v>30192.61954398331</v>
       </c>
       <c r="N4" t="n">
-        <v>30192.61954398332</v>
+        <v>30192.61954398331</v>
       </c>
       <c r="O4" t="n">
         <v>26230.44077798685</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-147539.8165476532</v>
+        <v>-147908.9083737273</v>
       </c>
       <c r="C6" t="n">
-        <v>161258.9250643905</v>
+        <v>160889.8332383165</v>
       </c>
       <c r="D6" t="n">
-        <v>161258.9250643906</v>
+        <v>160889.8332383165</v>
       </c>
       <c r="E6" t="n">
-        <v>194886.5250643905</v>
+        <v>194517.4332383166</v>
       </c>
       <c r="F6" t="n">
-        <v>194886.5250643904</v>
+        <v>194517.4332383164</v>
       </c>
       <c r="G6" t="n">
-        <v>150652.3081461141</v>
+        <v>150471.7275534649</v>
       </c>
       <c r="H6" t="n">
-        <v>217555.7044997467</v>
+        <v>217375.1239070975</v>
       </c>
       <c r="I6" t="n">
-        <v>217555.7044997466</v>
+        <v>217375.1239070975</v>
       </c>
       <c r="J6" t="n">
-        <v>-23535.88858799006</v>
+        <v>-23716.46918063911</v>
       </c>
       <c r="K6" t="n">
-        <v>217555.7044997465</v>
+        <v>217375.1239070975</v>
       </c>
       <c r="L6" t="n">
-        <v>217555.7044997466</v>
+        <v>217375.1239070975</v>
       </c>
       <c r="M6" t="n">
-        <v>217555.7044997466</v>
+        <v>217375.1239070976</v>
       </c>
       <c r="N6" t="n">
-        <v>217555.7044997467</v>
+        <v>217375.1239070975</v>
       </c>
       <c r="O6" t="n">
-        <v>194886.5250643904</v>
+        <v>194517.4332383164</v>
       </c>
       <c r="P6" t="n">
-        <v>194886.5250643904</v>
+        <v>194517.4332383166</v>
       </c>
     </row>
   </sheetData>
@@ -34707,13 +34707,13 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M2" t="n">
-        <v>115.3529954001169</v>
+        <v>724.5188648218746</v>
       </c>
       <c r="N2" t="n">
         <v>760.7889056955737</v>
       </c>
       <c r="O2" t="n">
-        <v>650.1321781990958</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>534.50171506985</v>
@@ -34722,7 +34722,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34786,22 +34786,22 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>807.9543263212012</v>
       </c>
       <c r="O3" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P3" t="n">
-        <v>279.9824724088646</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34938,7 +34938,7 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
-        <v>543.5954556656965</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>719.7892927396343</v>
@@ -34947,16 +34947,16 @@
         <v>784.1601929209636</v>
       </c>
       <c r="N5" t="n">
-        <v>118.6674552837905</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O5" t="n">
-        <v>650.1321781990958</v>
+        <v>227.2011260840276</v>
       </c>
       <c r="P5" t="n">
         <v>534.50171506985</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
         <v>40.9663087773382</v>
@@ -35014,19 +35014,19 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>140.1884960996979</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>512.4463282754482</v>
       </c>
       <c r="O6" t="n">
         <v>711.0677682281761</v>
@@ -35038,7 +35038,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35172,13 +35172,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>296.8582406245658</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M8" t="n">
         <v>784.1601929209636</v>
@@ -35193,10 +35193,10 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q8" t="n">
-        <v>324.4050573689818</v>
+        <v>199.1933155138319</v>
       </c>
       <c r="R8" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35254,16 +35254,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M9" t="n">
-        <v>473.6101143363514</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>882.4829213248665</v>
+        <v>198.0587452094838</v>
       </c>
       <c r="O9" t="n">
         <v>711.0677682281761</v>
@@ -35275,7 +35275,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>543.5954556656965</v>
@@ -35424,10 +35424,10 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O11" t="n">
-        <v>583.478751634501</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>190.0995749179851</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35494,13 +35494,13 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>151.2227878040966</v>
       </c>
       <c r="M12" t="n">
-        <v>473.6101143363514</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N12" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>711.0677682281761</v>
@@ -35509,7 +35509,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35658,19 +35658,19 @@
         <v>784.1601929209636</v>
       </c>
       <c r="N14" t="n">
-        <v>760.7889056955737</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>218.1073854881809</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q14" t="n">
-        <v>324.4050573689818</v>
+        <v>159.6337640611288</v>
       </c>
       <c r="R14" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M15" t="n">
-        <v>473.6101143363514</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35889,7 +35889,7 @@
         <v>543.5954556656965</v>
       </c>
       <c r="L17" t="n">
-        <v>719.7892927396343</v>
+        <v>719.7892927396346</v>
       </c>
       <c r="M17" t="n">
         <v>784.1601929209636</v>
@@ -35898,7 +35898,7 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O17" t="n">
-        <v>650.132178199096</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P17" t="n">
         <v>534.50171506985</v>
@@ -35962,22 +35962,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M18" t="n">
-        <v>851.4920007015825</v>
+        <v>33.15638339129857</v>
       </c>
       <c r="N18" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36123,7 +36123,7 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K20" t="n">
-        <v>543.5954556656965</v>
+        <v>543.5954556656966</v>
       </c>
       <c r="L20" t="n">
         <v>719.7892927396343</v>
@@ -36202,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M21" t="n">
-        <v>851.4920007015825</v>
+        <v>18.22667726606008</v>
       </c>
       <c r="N21" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36439,25 +36439,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M24" t="n">
-        <v>851.4920007015825</v>
+        <v>18.22667726606008</v>
       </c>
       <c r="N24" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36676,25 +36676,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M27" t="n">
-        <v>851.4920007015825</v>
+        <v>18.22667726606008</v>
       </c>
       <c r="N27" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36913,25 +36913,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M30" t="n">
-        <v>473.6101143363514</v>
+        <v>18.22667726606008</v>
       </c>
       <c r="N30" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37156,19 +37156,19 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>187.87875394152</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>567.3796893823536</v>
+        <v>370.8892755450506</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37387,22 +37387,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M36" t="n">
-        <v>831.2996354089887</v>
+        <v>18.22667726606008</v>
       </c>
       <c r="N36" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q36" t="n">
         <v>353.3782471555388</v>
@@ -37551,7 +37551,7 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M38" t="n">
-        <v>784.1601929209636</v>
+        <v>784.1601929209637</v>
       </c>
       <c r="N38" t="n">
         <v>760.7889056955737</v>
@@ -37624,25 +37624,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M39" t="n">
-        <v>851.4920007015825</v>
+        <v>18.22667726606008</v>
       </c>
       <c r="N39" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>333.1858818629454</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K41" t="n">
         <v>543.5954556656965</v>
@@ -37791,19 +37791,19 @@
         <v>784.1601929209636</v>
       </c>
       <c r="N41" t="n">
-        <v>375.4204567663705</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>650.1321781990958</v>
+        <v>485.3608848912428</v>
       </c>
       <c r="P41" t="n">
         <v>534.50171506985</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R41" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,25 +37861,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M42" t="n">
-        <v>473.6101143363514</v>
+        <v>18.22667726606031</v>
       </c>
       <c r="N42" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,10 +38016,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>543.5954556656965</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>719.7892927396343</v>
@@ -38031,13 +38031,13 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O44" t="n">
-        <v>542.5124428571627</v>
+        <v>483.9541275666077</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R44" t="n">
         <v>40.9663087773382</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>667.7658302215033</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M45" t="n">
-        <v>516.9120523430242</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
